--- a/vufind/module/DHGE/tests/fixtures/spreadsheet/rda.xlsx
+++ b/vufind/module/DHGE/tests/fixtures/spreadsheet/rda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f6bema\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ta37sev\Documents\workspace\thulbsuche2_dev\vufind\module\DHGE\tests\fixtures\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE904C4B-8D35-48D5-8682-4AE70B899A77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370A6D06-31C6-4AEA-9FA6-E35D738717AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="14148" tabRatio="500" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="14145" tabRatio="500" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Titel" sheetId="2" r:id="rId1"/>
@@ -3064,10 +3064,6 @@
     <t>München : Fachbuchverl. Leipzig im Carl-Hanser-Verl., 2011/2012</t>
   </si>
   <si>
-    <t>Microtechnology
-Mikrosystemtechnik</t>
-  </si>
-  <si>
     <t>650 $a 
 689 $a</t>
   </si>
@@ -3621,12 +3617,6 @@
     <t>1 online resource (xx, 399 p.)</t>
   </si>
   <si>
-    <t>Debts, External
-Deutschland
-Deutschland &gt; Erbrecht &gt; Minderjähriger &gt; Haftungsbeschränkung
-Deutschland &gt; Vermögenssorge &gt; Minderjähriger &gt; Haftungsbeschränkung</t>
-  </si>
-  <si>
     <t>OKKSA e.V. : Offener Katalog Kommunaler Softwareanforderungen [Issuing body]</t>
   </si>
   <si>
@@ -3649,6 +3639,14 @@
   </si>
   <si>
     <t>Vom Verstehen von "herausfordernden Verhaltensweisen" zum Verständnis für "herausfordernde Situationen"; Die Gestaltung von Arbeitssituationen von Menschen mit schweren Beeinträchtigungen</t>
+  </si>
+  <si>
+    <t>Microtechnology; Mikrosystemtechnik</t>
+  </si>
+  <si>
+    <t>Deutschland &gt; Erbrecht &gt; Minderjähriger &gt; Haftungsbeschränkung
+Deutschland &gt; Vermögenssorge &gt; Minderjähriger &gt; Haftungsbeschränkung
+Debts, External; Deutschland</t>
   </si>
 </sst>
 </file>
@@ -22334,13 +22332,13 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="34.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="34.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="58.19921875" customWidth="1"/>
-    <col min="4" max="4" width="54.8984375" customWidth="1"/>
+    <col min="3" max="3" width="58.25" customWidth="1"/>
+    <col min="4" max="4" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22353,7 +22351,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -22361,7 +22359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -22369,7 +22367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -22377,7 +22375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -22390,7 +22388,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -22403,7 +22401,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -22412,7 +22410,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -22424,7 +22422,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
@@ -22436,7 +22434,7 @@
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
@@ -22449,7 +22447,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
@@ -22462,7 +22460,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -22470,7 +22468,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
@@ -22478,7 +22476,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -22498,7 +22496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
@@ -22508,7 +22506,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -22516,7 +22514,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -22528,7 +22526,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>29</v>
       </c>
@@ -22544,7 +22542,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>29</v>
       </c>
@@ -22552,26 +22550,26 @@
         <v>656670649</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="95" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
@@ -22595,12 +22593,12 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="41.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="41.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22612,7 +22610,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -22620,7 +22618,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -22628,7 +22626,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -22636,7 +22634,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -22648,7 +22646,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -22659,14 +22657,14 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -22677,7 +22675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>121</v>
       </c>
@@ -22688,7 +22686,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>123</v>
       </c>
@@ -22697,12 +22695,12 @@
       </c>
       <c r="C10" s="119"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="119"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>125</v>
       </c>
@@ -22711,7 +22709,7 @@
       </c>
       <c r="C12" s="119"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>126</v>
       </c>
@@ -22720,12 +22718,12 @@
       </c>
       <c r="C13" s="119"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="119"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>128</v>
       </c>
@@ -22734,7 +22732,7 @@
       </c>
       <c r="C15" s="119"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>129</v>
       </c>
@@ -22743,12 +22741,12 @@
       </c>
       <c r="C16" s="119"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="119"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>130</v>
       </c>
@@ -22757,7 +22755,7 @@
       </c>
       <c r="C18" s="119"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>131</v>
       </c>
@@ -22766,12 +22764,12 @@
       </c>
       <c r="C19" s="119"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="119"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>132</v>
       </c>
@@ -22780,7 +22778,7 @@
       </c>
       <c r="C21" s="119"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>134</v>
       </c>
@@ -22789,7 +22787,7 @@
       </c>
       <c r="C22" s="119"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>389</v>
       </c>
@@ -22798,12 +22796,12 @@
       </c>
       <c r="C23" s="119"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="119"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>22</v>
       </c>
@@ -22812,72 +22810,72 @@
       </c>
       <c r="C25" s="119"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C26" s="119"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="119"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="119"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="119"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="119"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="119"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="119"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="119"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="119"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="119"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="119"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="119"/>
       <c r="F37" s="28"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="26"/>
@@ -22885,7 +22883,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
@@ -22893,7 +22891,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>9</v>
       </c>
@@ -22913,7 +22911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
@@ -22923,66 +22921,66 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B42" s="22">
         <v>656670649</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="21"/>
     </row>
-    <row r="43" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="95" t="s">
         <v>136</v>
       </c>
       <c r="B43" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="C43" s="99" t="s">
         <v>492</v>
       </c>
-      <c r="C43" s="99" t="s">
-        <v>493</v>
-      </c>
       <c r="D43" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="94" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B44" s="88">
         <v>318503832</v>
       </c>
       <c r="C44" s="99" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="21"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="94" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B45" s="98" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C45" s="99" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
@@ -23002,16 +23000,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="41.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="41.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23023,7 +23021,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -23031,7 +23029,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -23039,7 +23037,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -23047,7 +23045,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -23059,7 +23057,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -23070,14 +23068,14 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -23088,7 +23086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>142</v>
       </c>
@@ -23099,7 +23097,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>144</v>
       </c>
@@ -23108,7 +23106,7 @@
       </c>
       <c r="C10" s="119"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>146</v>
       </c>
@@ -23117,12 +23115,12 @@
       </c>
       <c r="C11" s="119"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="119"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>148</v>
       </c>
@@ -23131,7 +23129,7 @@
       </c>
       <c r="C13" s="119"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>149</v>
       </c>
@@ -23140,7 +23138,7 @@
       </c>
       <c r="C14" s="119"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>146</v>
       </c>
@@ -23149,118 +23147,118 @@
       </c>
       <c r="C15" s="119"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="119"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="119"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="119"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="119"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="119"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="119"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="119"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="119"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="119"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="119"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="119"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="119"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="119"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="119"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="119"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="119"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="119"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="119"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="119"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="119"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="119"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="119"/>
       <c r="F37" s="28"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="26"/>
@@ -23268,7 +23266,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
@@ -23276,7 +23274,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>9</v>
       </c>
@@ -23296,7 +23294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
@@ -23306,50 +23304,50 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B42" s="22">
         <v>666109559</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>451</v>
+        <v>598</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>451</v>
+        <v>598</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="21"/>
     </row>
-    <row r="43" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="85.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="95" t="s">
         <v>152</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A44" s="94" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B44" s="22">
         <v>1658944399</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="21"/>
@@ -23376,12 +23374,12 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="47.8984375" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -23395,7 +23393,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -23409,7 +23407,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -23423,7 +23421,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -23437,7 +23435,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -23451,7 +23449,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -23465,7 +23463,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -23475,7 +23473,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -23490,7 +23488,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>158</v>
       </c>
@@ -23505,7 +23503,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -23515,7 +23513,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -23535,7 +23533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -23545,7 +23543,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>158</v>
       </c>
@@ -23553,15 +23551,15 @@
         <v>666109559</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="94" t="s">
         <v>162</v>
       </c>
@@ -23569,26 +23567,26 @@
         <v>511448813</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B15" s="22">
         <v>129510750</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43"/>
@@ -23610,9 +23608,9 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="27.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="27.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23624,7 +23622,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -23632,7 +23630,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -23640,7 +23638,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -23649,7 +23647,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -23661,7 +23659,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -23672,14 +23670,14 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -23690,7 +23688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="255" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>168</v>
       </c>
@@ -23701,7 +23699,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="26" t="s">
@@ -23711,7 +23709,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -23719,7 +23717,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -23739,7 +23737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -23749,7 +23747,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="95" t="s">
         <v>172</v>
       </c>
@@ -23757,26 +23755,26 @@
         <v>318503832</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="95" t="s">
         <v>172</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C15" s="99" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
@@ -23801,15 +23799,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.69921875" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="53.5" customWidth="1"/>
-    <col min="4" max="4" width="39.19921875" customWidth="1"/>
+    <col min="4" max="4" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23822,7 +23820,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -23830,7 +23828,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -23838,7 +23836,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -23846,7 +23844,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -23859,7 +23857,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -23872,7 +23870,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -23881,7 +23879,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -23892,14 +23890,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="23"/>
     </row>
-    <row r="11" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -23919,7 +23917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -23931,7 +23929,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="95" t="s">
         <v>178</v>
       </c>
@@ -23939,15 +23937,15 @@
         <v>318503832</v>
       </c>
       <c r="C13" s="99" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="95" t="s">
         <v>179</v>
       </c>
@@ -23955,26 +23953,26 @@
         <v>1779836139</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="103"/>
     </row>
-    <row r="15" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="95" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B15" s="88">
         <v>1746361352</v>
       </c>
       <c r="C15" s="99" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="103"/>
@@ -23998,12 +23996,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -24017,7 +24015,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -24031,7 +24029,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -24045,7 +24043,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -24059,7 +24057,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -24073,7 +24071,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -24087,7 +24085,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -24097,7 +24095,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -24112,7 +24110,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>186</v>
       </c>
@@ -24123,7 +24121,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -24133,7 +24131,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -24153,7 +24151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -24163,7 +24161,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="94" t="s">
         <v>186</v>
       </c>
@@ -24171,10 +24169,10 @@
         <v>522574572</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="110"/>
@@ -24196,15 +24194,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.19921875" customWidth="1"/>
-    <col min="2" max="2" width="31.796875" customWidth="1"/>
-    <col min="3" max="3" width="40.19921875" customWidth="1"/>
-    <col min="4" max="4" width="59.296875" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="31.75" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="4" max="4" width="59.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -24218,7 +24216,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -24232,7 +24230,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -24246,7 +24244,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -24260,7 +24258,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -24274,7 +24272,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -24288,7 +24286,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -24298,7 +24296,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -24313,9 +24311,9 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>192</v>
@@ -24326,7 +24324,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -24336,7 +24334,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -24356,7 +24354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -24366,55 +24364,55 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="94" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B13" s="88">
         <v>131169416</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="94" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B14" s="88">
         <v>129510750</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:8" s="116" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="116" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="111" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B15" s="112">
         <v>507897900</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E15" s="114"/>
       <c r="F15" s="115"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="102"/>
     </row>
   </sheetData>
@@ -24434,13 +24432,13 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="92.69921875" customWidth="1"/>
+    <col min="4" max="4" width="92.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -24454,7 +24452,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -24468,7 +24466,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -24482,7 +24480,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -24496,7 +24494,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -24510,7 +24508,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -24524,7 +24522,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -24534,7 +24532,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -24549,7 +24547,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>198</v>
       </c>
@@ -24562,7 +24560,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -24572,7 +24570,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -24592,7 +24590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -24602,7 +24600,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="94" t="s">
         <v>198</v>
       </c>
@@ -24610,15 +24608,15 @@
         <v>131169416</v>
       </c>
       <c r="C13" s="100" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="94" t="s">
         <v>198</v>
       </c>
@@ -24626,15 +24624,15 @@
         <v>129510750</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:8" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="111" t="s">
         <v>198</v>
       </c>
@@ -24642,10 +24640,10 @@
         <v>507897900</v>
       </c>
       <c r="C15" s="113" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E15" s="114"/>
       <c r="F15" s="115"/>
@@ -24664,15 +24662,15 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="37.8984375" customWidth="1"/>
+    <col min="3" max="3" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24685,7 +24683,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -24693,7 +24691,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -24701,7 +24699,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -24709,7 +24707,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -24722,7 +24720,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -24735,7 +24733,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -24744,7 +24742,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -24755,7 +24753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>409</v>
       </c>
@@ -24766,7 +24764,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>412</v>
       </c>
@@ -24775,7 +24773,7 @@
       </c>
       <c r="C10" s="122"/>
     </row>
-    <row r="11" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>407</v>
       </c>
@@ -24784,7 +24782,7 @@
       </c>
       <c r="C11" s="122"/>
     </row>
-    <row r="12" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>408</v>
       </c>
@@ -24793,7 +24791,7 @@
       </c>
       <c r="C12" s="123"/>
     </row>
-    <row r="13" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>414</v>
       </c>
@@ -24802,7 +24800,7 @@
       </c>
       <c r="C13" s="124"/>
     </row>
-    <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -24822,7 +24820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -24834,7 +24832,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>406</v>
       </c>
@@ -24852,34 +24850,34 @@
       </c>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="97" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B18" s="22">
         <v>511448813</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="118" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B19" s="22">
         <v>517357518</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
@@ -24906,17 +24904,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
-    <col min="3" max="3" width="52.69921875" customWidth="1"/>
-    <col min="4" max="4" width="44.59765625" customWidth="1"/>
-    <col min="6" max="6" width="8.09765625" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="52.75" customWidth="1"/>
+    <col min="4" max="4" width="44.625" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24929,7 +24927,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -24937,7 +24935,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -24945,7 +24943,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -24953,7 +24951,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -24966,7 +24964,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -24981,7 +24979,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -24990,7 +24988,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -25001,7 +24999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>209</v>
       </c>
@@ -25012,7 +25010,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>211</v>
       </c>
@@ -25021,7 +25019,7 @@
       </c>
       <c r="C10" s="119"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>213</v>
       </c>
@@ -25030,7 +25028,7 @@
       </c>
       <c r="C11" s="119"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>214</v>
       </c>
@@ -25039,7 +25037,7 @@
       </c>
       <c r="C12" s="119"/>
     </row>
-    <row r="13" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>216</v>
       </c>
@@ -25048,7 +25046,7 @@
       </c>
       <c r="C13" s="119"/>
     </row>
-    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>391</v>
       </c>
@@ -25057,12 +25055,12 @@
       </c>
       <c r="C14" s="119"/>
     </row>
-    <row r="15" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="119"/>
     </row>
-    <row r="17" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -25082,7 +25080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -25094,71 +25092,71 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B19" s="22">
         <v>666109559</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B21" s="88">
         <v>655772626</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:8" s="32" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="32" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A22" s="95" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B22" s="88">
         <v>129510750</v>
       </c>
       <c r="C22" s="99" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="103"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="67"/>
     </row>
   </sheetData>
@@ -25177,16 +25175,16 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="34.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="34.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="130.5" customWidth="1"/>
-    <col min="4" max="4" width="92.69921875" customWidth="1"/>
+    <col min="4" max="4" width="92.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25194,7 +25192,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -25202,7 +25200,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -25210,19 +25208,19 @@
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="74"/>
     </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="74"/>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -25230,8 +25228,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -25243,7 +25241,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="76" t="s">
         <v>434</v>
       </c>
@@ -25255,7 +25253,7 @@
       </c>
       <c r="D9" s="78"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="79"/>
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
@@ -25263,7 +25261,7 @@
       <c r="E10" s="80"/>
       <c r="F10" s="80"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="79"/>
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
@@ -25271,7 +25269,7 @@
       <c r="E11" s="80"/>
       <c r="F11" s="80"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -25291,7 +25289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="73" t="s">
         <v>15</v>
       </c>
@@ -25301,7 +25299,7 @@
       <c r="E13" s="82"/>
       <c r="F13" s="81"/>
     </row>
-    <row r="14" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -25309,12 +25307,12 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="83" t="s">
         <v>434</v>
       </c>
@@ -25330,7 +25328,7 @@
       <c r="E16" s="86"/>
       <c r="F16" s="87"/>
     </row>
-    <row r="17" spans="1:6" ht="215.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="215.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="83" t="s">
         <v>434</v>
       </c>
@@ -25338,31 +25336,31 @@
         <v>1650817541</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E17" s="86"/>
       <c r="F17" s="87"/>
     </row>
-    <row r="18" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="95" t="s">
         <v>434</v>
       </c>
       <c r="B18" s="84" t="s">
+        <v>510</v>
+      </c>
+      <c r="C18" s="85" t="s">
         <v>511</v>
       </c>
-      <c r="C18" s="85" t="s">
-        <v>512</v>
-      </c>
       <c r="D18" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E18" s="86"/>
       <c r="F18" s="87"/>
     </row>
-    <row r="19" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{C8A4346A-CE32-463B-A5E3-A33CFC50ED23}"/>
@@ -25382,14 +25380,14 @@
       <selection activeCell="D17" sqref="D17:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="44.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="44.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="49.59765625" customWidth="1"/>
-    <col min="4" max="4" width="28.3984375" customWidth="1"/>
-    <col min="5" max="5" width="30.8984375" customWidth="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25401,7 +25399,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -25409,7 +25407,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -25417,7 +25415,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -25425,7 +25423,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -25437,7 +25435,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -25449,7 +25447,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -25468,7 +25466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>224</v>
       </c>
@@ -25479,7 +25477,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>226</v>
       </c>
@@ -25491,7 +25489,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>227</v>
       </c>
@@ -25503,7 +25501,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>228</v>
       </c>
@@ -25515,7 +25513,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="26"/>
@@ -25523,7 +25521,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -25531,7 +25529,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -25549,7 +25547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -25559,50 +25557,50 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="95" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B17" s="88">
         <v>518960641</v>
       </c>
       <c r="C17" s="99" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A18" s="95" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B18" s="88">
         <v>129228222</v>
       </c>
       <c r="C18" s="99" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="95" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B19" s="88">
         <v>131169416</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
@@ -25630,12 +25628,12 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="43.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="43.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="63.19921875" customWidth="1"/>
+    <col min="3" max="3" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25647,7 +25645,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -25655,7 +25653,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -25663,7 +25661,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -25671,7 +25669,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -25683,7 +25681,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -25695,14 +25693,14 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -25713,7 +25711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>234</v>
       </c>
@@ -25724,7 +25722,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="306" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>237</v>
       </c>
@@ -25735,7 +25733,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>240</v>
       </c>
@@ -25745,7 +25743,7 @@
       <c r="C11" s="49"/>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>242</v>
       </c>
@@ -25756,7 +25754,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>244</v>
       </c>
@@ -25768,7 +25766,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>245</v>
       </c>
@@ -25780,7 +25778,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>246</v>
       </c>
@@ -25792,7 +25790,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>247</v>
       </c>
@@ -25804,7 +25802,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>249</v>
       </c>
@@ -25816,7 +25814,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>250</v>
       </c>
@@ -25828,7 +25826,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>251</v>
       </c>
@@ -25840,7 +25838,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>253</v>
       </c>
@@ -25852,7 +25850,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="26"/>
@@ -25860,7 +25858,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -25868,7 +25866,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
@@ -25888,7 +25886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
@@ -25898,7 +25896,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>251</v>
       </c>
@@ -25906,15 +25904,15 @@
         <v>666109559</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>251</v>
       </c>
@@ -25922,31 +25920,31 @@
         <v>656670649</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="95" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B27" s="22">
         <v>470755261</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:6" ht="137.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>251</v>
       </c>
@@ -25954,10 +25952,10 @@
         <v>872191281</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="21"/>
@@ -25985,12 +25983,12 @@
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="41.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="41.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26002,7 +26000,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -26010,7 +26008,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -26018,7 +26016,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -26026,7 +26024,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -26038,7 +26036,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -26051,14 +26049,14 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -26069,7 +26067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>262</v>
       </c>
@@ -26080,7 +26078,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>265</v>
       </c>
@@ -26089,7 +26087,7 @@
       </c>
       <c r="C10" s="119"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>267</v>
       </c>
@@ -26098,7 +26096,7 @@
       </c>
       <c r="C11" s="119"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>269</v>
       </c>
@@ -26107,7 +26105,7 @@
       </c>
       <c r="C12" s="119"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>271</v>
       </c>
@@ -26116,7 +26114,7 @@
       </c>
       <c r="C13" s="119"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>273</v>
       </c>
@@ -26125,7 +26123,7 @@
       </c>
       <c r="C14" s="119"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>275</v>
       </c>
@@ -26134,7 +26132,7 @@
       </c>
       <c r="C15" s="119"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>277</v>
       </c>
@@ -26143,7 +26141,7 @@
       </c>
       <c r="C16" s="119"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>279</v>
       </c>
@@ -26152,7 +26150,7 @@
       </c>
       <c r="C17" s="119"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>281</v>
       </c>
@@ -26161,7 +26159,7 @@
       </c>
       <c r="C18" s="119"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>283</v>
       </c>
@@ -26170,7 +26168,7 @@
       </c>
       <c r="C19" s="119"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>285</v>
       </c>
@@ -26179,7 +26177,7 @@
       </c>
       <c r="C20" s="119"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>287</v>
       </c>
@@ -26188,7 +26186,7 @@
       </c>
       <c r="C21" s="119"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>289</v>
       </c>
@@ -26197,12 +26195,12 @@
       </c>
       <c r="C22" s="119"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="119"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>291</v>
       </c>
@@ -26211,7 +26209,7 @@
       </c>
       <c r="C24" s="119"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>292</v>
       </c>
@@ -26220,7 +26218,7 @@
       </c>
       <c r="C25" s="119"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>293</v>
       </c>
@@ -26229,7 +26227,7 @@
       </c>
       <c r="C26" s="119"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>294</v>
       </c>
@@ -26238,7 +26236,7 @@
       </c>
       <c r="C27" s="119"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>295</v>
       </c>
@@ -26247,7 +26245,7 @@
       </c>
       <c r="C28" s="119"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>296</v>
       </c>
@@ -26256,7 +26254,7 @@
       </c>
       <c r="C29" s="119"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>297</v>
       </c>
@@ -26265,7 +26263,7 @@
       </c>
       <c r="C30" s="119"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>298</v>
       </c>
@@ -26274,7 +26272,7 @@
       </c>
       <c r="C31" s="119"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>299</v>
       </c>
@@ -26283,7 +26281,7 @@
       </c>
       <c r="C32" s="119"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>300</v>
       </c>
@@ -26292,7 +26290,7 @@
       </c>
       <c r="C33" s="119"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>301</v>
       </c>
@@ -26301,7 +26299,7 @@
       </c>
       <c r="C34" s="119"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>302</v>
       </c>
@@ -26310,7 +26308,7 @@
       </c>
       <c r="C35" s="119"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>303</v>
       </c>
@@ -26319,7 +26317,7 @@
       </c>
       <c r="C36" s="119"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>304</v>
       </c>
@@ -26329,13 +26327,13 @@
       <c r="C37" s="119"/>
       <c r="F37" s="28"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="53"/>
       <c r="F38" s="28"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>305</v>
       </c>
@@ -26345,7 +26343,7 @@
       <c r="C39" s="53"/>
       <c r="F39" s="28"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>52</v>
       </c>
@@ -26355,7 +26353,7 @@
       <c r="C40" s="53"/>
       <c r="F40" s="28"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>53</v>
       </c>
@@ -26365,7 +26363,7 @@
       <c r="C41" s="53"/>
       <c r="F41" s="28"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>309</v>
       </c>
@@ -26375,7 +26373,7 @@
       <c r="C42" s="53"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>311</v>
       </c>
@@ -26385,7 +26383,7 @@
       <c r="C43" s="53"/>
       <c r="F43" s="28"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>313</v>
       </c>
@@ -26395,7 +26393,7 @@
       <c r="C44" s="53"/>
       <c r="F44" s="28"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="26"/>
@@ -26403,7 +26401,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
@@ -26411,7 +26409,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>9</v>
       </c>
@@ -26431,7 +26429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>16</v>
       </c>
@@ -26441,23 +26439,23 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="95" t="s">
         <v>315</v>
       </c>
       <c r="B49" s="98" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C49" s="99" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E49" s="42"/>
       <c r="F49" s="103"/>
     </row>
-    <row r="50" spans="1:6" s="32" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="32" customFormat="1" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="95" t="s">
         <v>315</v>
       </c>
@@ -26465,10 +26463,10 @@
         <v>872191281</v>
       </c>
       <c r="C50" s="99" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E50" s="42"/>
       <c r="F50" s="103"/>
@@ -26500,12 +26498,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="57.8984375" customWidth="1"/>
+    <col min="3" max="3" width="57.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -26519,7 +26517,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -26533,7 +26531,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -26547,7 +26545,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -26561,7 +26559,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -26575,7 +26573,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -26589,7 +26587,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -26599,7 +26597,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -26614,7 +26612,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>321</v>
       </c>
@@ -26627,7 +26625,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -26637,7 +26635,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -26657,7 +26655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -26667,7 +26665,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>322</v>
       </c>
@@ -26675,42 +26673,42 @@
         <v>666109559</v>
       </c>
       <c r="C13" s="108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="94" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B14" s="22">
         <v>656670649</v>
       </c>
       <c r="C14" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B15" s="22">
         <v>1659478022</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43"/>
@@ -26732,13 +26730,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="47.8984375" customWidth="1"/>
-    <col min="3" max="3" width="60.8984375" customWidth="1"/>
+    <col min="2" max="2" width="47.875" customWidth="1"/>
+    <col min="3" max="3" width="60.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -26746,7 +26744,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -26754,7 +26752,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -26762,7 +26760,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -26770,7 +26768,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -26778,7 +26776,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -26786,7 +26784,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="54"/>
@@ -26796,7 +26794,7 @@
       <c r="H7" s="54"/>
       <c r="I7" s="50"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -26811,22 +26809,22 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B9" s="56" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D9" s="55"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -26836,7 +26834,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -26856,7 +26854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -26866,23 +26864,23 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B13" s="22">
         <v>656670649</v>
       </c>
       <c r="C13" s="109" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="94" t="s">
         <v>329</v>
       </c>
@@ -26890,10 +26888,10 @@
         <v>1650786514</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
@@ -26912,12 +26910,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="46.3984375" customWidth="1"/>
+    <col min="3" max="3" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26929,7 +26927,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -26937,7 +26935,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -26945,7 +26943,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -26953,7 +26951,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -26965,7 +26963,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -26977,7 +26975,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -26985,7 +26983,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -26997,7 +26995,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="186" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>332</v>
       </c>
@@ -27007,7 +27005,7 @@
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>333</v>
       </c>
@@ -27019,7 +27017,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -27027,7 +27025,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -27035,7 +27033,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -27055,7 +27053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -27065,7 +27063,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -27075,50 +27073,50 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B16" s="22">
         <v>666109559</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="95" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B17" s="22">
         <v>656670649</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="95" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
@@ -27146,9 +27144,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27160,7 +27158,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -27168,7 +27166,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -27176,7 +27174,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -27184,7 +27182,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -27196,7 +27194,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -27208,7 +27206,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -27216,7 +27214,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -27228,7 +27226,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>338</v>
       </c>
@@ -27240,13 +27238,13 @@
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -27254,7 +27252,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -27262,7 +27260,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -27282,7 +27280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -27292,7 +27290,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -27302,7 +27300,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>338</v>
       </c>
@@ -27341,12 +27339,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="46.3984375" customWidth="1"/>
+    <col min="3" max="3" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27358,7 +27356,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -27366,7 +27364,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -27374,7 +27372,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -27382,7 +27380,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -27394,7 +27392,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -27404,7 +27402,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -27412,7 +27410,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -27424,7 +27422,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>370</v>
       </c>
@@ -27436,7 +27434,7 @@
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -27444,7 +27442,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -27452,7 +27450,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -27472,7 +27470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
         <v>15</v>
       </c>
@@ -27482,7 +27480,7 @@
       <c r="E13" s="63"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -27492,66 +27490,66 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="95" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B15" s="88">
         <v>511441622</v>
       </c>
       <c r="C15" s="96" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="95" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B16" s="88">
         <v>129290025</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="95" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B17" s="88">
         <v>581589599</v>
       </c>
       <c r="C17" s="99" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="95" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B18" s="88">
         <v>165821035</v>
       </c>
       <c r="C18" s="99" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
@@ -27576,12 +27574,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="46.3984375" customWidth="1"/>
+    <col min="3" max="3" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27593,7 +27591,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -27601,7 +27599,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -27609,7 +27607,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -27617,7 +27615,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -27629,7 +27627,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -27641,7 +27639,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -27649,7 +27647,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -27661,7 +27659,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>395</v>
       </c>
@@ -27671,7 +27669,7 @@
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -27679,7 +27677,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -27687,7 +27685,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -27707,7 +27705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="70" t="s">
         <v>15</v>
       </c>
@@ -27717,7 +27715,7 @@
       <c r="E13" s="69"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -27727,7 +27725,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="95" t="s">
         <v>395</v>
       </c>
@@ -27735,26 +27733,26 @@
         <v>1745126244</v>
       </c>
       <c r="C15" s="99" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="95" t="s">
         <v>395</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
@@ -27782,12 +27780,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="46.3984375" customWidth="1"/>
+    <col min="3" max="3" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27799,7 +27797,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -27807,7 +27805,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -27815,7 +27813,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -27823,7 +27821,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -27835,7 +27833,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -27847,7 +27845,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -27855,7 +27853,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -27867,7 +27865,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>427</v>
       </c>
@@ -27877,7 +27875,7 @@
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -27885,7 +27883,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -27893,7 +27891,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -27913,7 +27911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="72" t="s">
         <v>15</v>
       </c>
@@ -27923,7 +27921,7 @@
       <c r="E13" s="71"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -27933,7 +27931,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="95" t="s">
         <v>427</v>
       </c>
@@ -27941,15 +27939,15 @@
         <v>1761312138</v>
       </c>
       <c r="C15" s="99" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="103"/>
     </row>
-    <row r="16" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="95" t="s">
         <v>427</v>
       </c>
@@ -27957,15 +27955,15 @@
         <v>592166880</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="103"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="93"/>
     </row>
   </sheetData>
@@ -27991,12 +27989,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="34.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="34.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="58.19921875" customWidth="1"/>
+    <col min="3" max="3" width="58.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28009,7 +28007,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -28017,7 +28015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -28025,7 +28023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -28033,7 +28031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -28046,7 +28044,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -28059,7 +28057,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -28068,7 +28066,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -28079,7 +28077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -28088,7 +28086,7 @@
       </c>
       <c r="C9" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -28108,7 +28106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -28119,7 +28117,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>36</v>
       </c>
@@ -28127,26 +28125,26 @@
         <v>1696886848</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B14" s="22">
         <v>1575565439</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
@@ -28170,12 +28168,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -28189,7 +28187,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -28203,7 +28201,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -28217,7 +28215,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -28231,7 +28229,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -28245,7 +28243,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -28259,7 +28257,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -28269,7 +28267,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -28284,7 +28282,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>345</v>
       </c>
@@ -28297,7 +28295,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -28307,7 +28305,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -28327,7 +28325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -28337,7 +28335,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="94" t="s">
         <v>345</v>
       </c>
@@ -28345,15 +28343,15 @@
         <v>215869605</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="94" t="s">
         <v>345</v>
       </c>
@@ -28361,10 +28359,10 @@
         <v>170303977</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
@@ -28386,12 +28384,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="31.8984375" customWidth="1"/>
+    <col min="3" max="3" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -28405,7 +28403,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -28419,7 +28417,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -28433,7 +28431,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -28447,7 +28445,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -28461,7 +28459,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -28475,7 +28473,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -28485,7 +28483,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -28500,7 +28498,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>350</v>
       </c>
@@ -28515,7 +28513,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>353</v>
       </c>
@@ -28528,7 +28526,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -28538,7 +28536,7 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -28558,7 +28556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -28568,60 +28566,60 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B14" s="22">
         <v>666109559</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B15" s="22">
         <v>656670649</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="94" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="43"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" s="59"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D21" s="59"/>
     </row>
   </sheetData>
@@ -28641,12 +28639,12 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="40.8984375" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -28660,7 +28658,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -28672,7 +28670,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -28686,7 +28684,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -28700,7 +28698,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -28714,7 +28712,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -28728,7 +28726,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -28738,7 +28736,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="89" t="s">
         <v>6</v>
       </c>
@@ -28753,7 +28751,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>350</v>
       </c>
@@ -28766,7 +28764,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="37"/>
       <c r="C10" s="127"/>
@@ -28774,7 +28772,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -28784,7 +28782,7 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -28804,7 +28802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -28814,63 +28812,63 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="107"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B15" s="88">
         <v>834430355</v>
       </c>
       <c r="C15" s="96" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="107"/>
     </row>
-    <row r="16" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B16" s="88">
         <v>731906543</v>
       </c>
       <c r="C16" s="96" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="107"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C17" s="59"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="61"/>
       <c r="B19" s="62"/>
       <c r="D19" s="59"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C24" s="62"/>
     </row>
   </sheetData>
@@ -28890,12 +28888,12 @@
       <selection activeCell="D20" sqref="D20:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="38.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="38.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28908,7 +28906,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -28916,7 +28914,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -28924,7 +28922,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -28932,7 +28930,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -28945,7 +28943,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -28958,7 +28956,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -28967,7 +28965,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -28979,7 +28977,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="220.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="232.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>253</v>
       </c>
@@ -28987,11 +28985,11 @@
         <v>254</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>360</v>
       </c>
@@ -29004,7 +29002,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>362</v>
       </c>
@@ -29017,7 +29015,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>363</v>
       </c>
@@ -29030,7 +29028,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="3"/>
@@ -29039,7 +29037,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -29047,7 +29045,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -29055,7 +29053,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -29075,7 +29073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -29085,7 +29083,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -29093,7 +29091,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -29105,7 +29103,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="95" t="s">
         <v>253</v>
       </c>
@@ -29113,42 +29111,42 @@
         <v>492421129</v>
       </c>
       <c r="C20" s="99" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E20" s="42"/>
       <c r="F20" s="103"/>
     </row>
-    <row r="21" spans="1:8" s="32" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="32" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B21" s="88">
         <v>844144010</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E21" s="42"/>
       <c r="F21" s="103"/>
     </row>
-    <row r="22" spans="1:8" s="32" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="32" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="95" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B22" s="88">
         <v>881211028</v>
       </c>
       <c r="C22" s="99" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="103"/>
@@ -29175,17 +29173,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
-    <col min="3" max="3" width="57.69921875" customWidth="1"/>
-    <col min="4" max="4" width="46.796875" customWidth="1"/>
-    <col min="6" max="6" width="8.09765625" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="57.75" customWidth="1"/>
+    <col min="4" max="4" width="46.75" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29198,7 +29196,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -29206,7 +29204,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -29214,7 +29212,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -29222,7 +29220,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -29235,7 +29233,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -29248,7 +29246,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -29257,7 +29255,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -29268,7 +29266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>386</v>
       </c>
@@ -29279,7 +29277,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>378</v>
       </c>
@@ -29288,7 +29286,7 @@
       </c>
       <c r="C10" s="119"/>
     </row>
-    <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>377</v>
       </c>
@@ -29297,27 +29295,27 @@
       </c>
       <c r="C11" s="119"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="119"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="119"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="119"/>
     </row>
-    <row r="15" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="119"/>
     </row>
-    <row r="17" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -29337,7 +29335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -29349,7 +29347,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>386</v>
       </c>
@@ -29357,31 +29355,31 @@
         <v>1672161770</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B20" s="22">
         <v>1777376807</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C21" s="68"/>
     </row>
   </sheetData>
@@ -29402,21 +29400,21 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
-    <col min="3" max="3" width="57.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.8984375" customWidth="1"/>
-    <col min="6" max="6" width="8.09765625" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="57.75" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29429,7 +29427,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -29437,7 +29435,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -29445,7 +29443,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -29453,7 +29451,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -29466,7 +29464,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -29479,7 +29477,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -29488,7 +29486,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -29499,7 +29497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>401</v>
       </c>
@@ -29510,7 +29508,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>403</v>
       </c>
@@ -29519,7 +29517,7 @@
       </c>
       <c r="C10" s="119"/>
     </row>
-    <row r="12" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -29539,7 +29537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -29551,26 +29549,26 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B14" s="22">
         <v>1777376807</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="68"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="93"/>
     </row>
   </sheetData>
@@ -29592,13 +29590,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="27.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="27.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="55.5" customWidth="1"/>
-    <col min="4" max="4" width="44.8984375" customWidth="1"/>
+    <col min="4" max="4" width="44.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29611,7 +29609,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -29619,7 +29617,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -29627,7 +29625,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -29635,7 +29633,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -29648,7 +29646,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -29661,7 +29659,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -29669,7 +29667,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -29680,7 +29678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>40</v>
       </c>
@@ -29691,7 +29689,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -29700,7 +29698,7 @@
       </c>
       <c r="C10" s="119"/>
     </row>
-    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>44</v>
       </c>
@@ -29709,7 +29707,7 @@
       </c>
       <c r="C11" s="119"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -29718,7 +29716,7 @@
       </c>
       <c r="C12" s="119"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>48</v>
       </c>
@@ -29728,7 +29726,7 @@
       <c r="C13" s="119"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
@@ -29738,7 +29736,7 @@
       <c r="C14" s="119"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>52</v>
       </c>
@@ -29748,7 +29746,7 @@
       <c r="C15" s="119"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>53</v>
       </c>
@@ -29758,7 +29756,7 @@
       <c r="C16" s="119"/>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>54</v>
       </c>
@@ -29768,7 +29766,7 @@
       <c r="C17" s="119"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
@@ -29778,7 +29776,7 @@
       <c r="C18" s="119"/>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
@@ -29786,7 +29784,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -29794,7 +29792,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
@@ -29814,7 +29812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -29826,7 +29824,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>447</v>
       </c>
@@ -29837,28 +29835,28 @@
         <v>446</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="95" t="s">
         <v>420</v>
       </c>
@@ -29866,10 +29864,10 @@
         <v>511448813</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
@@ -29897,13 +29895,13 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="54.8984375" customWidth="1"/>
+    <col min="3" max="3" width="54.875" customWidth="1"/>
     <col min="4" max="4" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29916,7 +29914,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -29924,7 +29922,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -29932,7 +29930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -29940,7 +29938,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -29952,7 +29950,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -29963,7 +29961,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -29971,7 +29969,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -29982,7 +29980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>61</v>
       </c>
@@ -29993,7 +29991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>64</v>
       </c>
@@ -30002,7 +30000,7 @@
       </c>
       <c r="C10" s="120"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>66</v>
       </c>
@@ -30011,7 +30009,7 @@
       </c>
       <c r="C11" s="120"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -30020,7 +30018,7 @@
       </c>
       <c r="C12" s="120"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>70</v>
       </c>
@@ -30029,7 +30027,7 @@
       </c>
       <c r="C13" s="120"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>72</v>
       </c>
@@ -30039,7 +30037,7 @@
       <c r="C14" s="120"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>73</v>
       </c>
@@ -30049,13 +30047,13 @@
       <c r="C15" s="120"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="120"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>74</v>
       </c>
@@ -30064,7 +30062,7 @@
       </c>
       <c r="C17" s="120"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>75</v>
       </c>
@@ -30073,7 +30071,7 @@
       </c>
       <c r="C18" s="120"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>76</v>
       </c>
@@ -30082,7 +30080,7 @@
       </c>
       <c r="C19" s="120"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>77</v>
       </c>
@@ -30091,7 +30089,7 @@
       </c>
       <c r="C20" s="120"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>78</v>
       </c>
@@ -30100,7 +30098,7 @@
       </c>
       <c r="C21" s="120"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>79</v>
       </c>
@@ -30112,7 +30110,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>80</v>
       </c>
@@ -30124,7 +30122,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -30132,7 +30130,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -30140,7 +30138,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -30148,7 +30146,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
@@ -30168,7 +30166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>16</v>
       </c>
@@ -30180,50 +30178,50 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="97" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B29" s="104">
         <v>866982868</v>
       </c>
       <c r="C29" s="105" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="97" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B30" s="104">
         <v>1745126244</v>
       </c>
       <c r="C30" s="105" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="97" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B31" s="104">
         <v>1016030746</v>
       </c>
       <c r="C31" s="105" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="21"/>
@@ -30251,9 +30249,9 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30266,7 +30264,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -30274,7 +30272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -30282,7 +30280,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -30290,7 +30288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -30303,7 +30301,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -30316,7 +30314,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -30325,7 +30323,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -30338,7 +30336,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>85</v>
       </c>
@@ -30351,7 +30349,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>366</v>
       </c>
@@ -30364,7 +30362,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>87</v>
       </c>
@@ -30377,7 +30375,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>88</v>
       </c>
@@ -30390,7 +30388,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>90</v>
       </c>
@@ -30403,7 +30401,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>91</v>
       </c>
@@ -30416,7 +30414,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>93</v>
       </c>
@@ -30428,7 +30426,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>95</v>
       </c>
@@ -30440,7 +30438,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>96</v>
       </c>
@@ -30453,7 +30451,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>97</v>
       </c>
@@ -30465,7 +30463,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="12"/>
@@ -30473,7 +30471,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
@@ -30493,7 +30491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
@@ -30505,23 +30503,23 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="95" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B22" s="88">
         <v>1016030746</v>
       </c>
       <c r="C22" s="99" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
     </row>
-    <row r="23" spans="1:8" s="32" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="32" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="95" t="s">
         <v>98</v>
       </c>
@@ -30529,26 +30527,26 @@
         <v>864701748</v>
       </c>
       <c r="C23" s="99" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E23" s="42"/>
       <c r="F23" s="103"/>
     </row>
-    <row r="24" spans="1:8" s="32" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="32" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="95" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B24" s="88">
         <v>312004893</v>
       </c>
       <c r="C24" s="99" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E24" s="42"/>
       <c r="F24" s="103"/>
@@ -30573,14 +30571,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -30594,7 +30592,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -30608,7 +30606,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -30622,7 +30620,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -30636,7 +30634,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -30650,7 +30648,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -30664,7 +30662,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -30674,7 +30672,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -30689,7 +30687,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>105</v>
       </c>
@@ -30700,7 +30698,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -30710,7 +30708,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -30730,7 +30728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -30740,7 +30738,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>106</v>
       </c>
@@ -30756,7 +30754,7 @@
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>106</v>
       </c>
@@ -30772,7 +30770,7 @@
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>106</v>
       </c>
@@ -30780,15 +30778,15 @@
         <v>303301538</v>
       </c>
       <c r="C15" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>533</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>534</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="102"/>
     </row>
   </sheetData>
@@ -30808,13 +30806,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="43.5" customWidth="1"/>
-    <col min="4" max="4" width="38.59765625" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -30828,7 +30826,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -30842,7 +30840,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -30856,7 +30854,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -30870,7 +30868,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -30884,7 +30882,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -30898,7 +30896,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -30908,7 +30906,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -30923,7 +30921,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>112</v>
       </c>
@@ -30938,7 +30936,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -30948,7 +30946,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -30968,7 +30966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -30978,7 +30976,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>112</v>
       </c>
@@ -30994,7 +30992,7 @@
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="94" t="s">
         <v>112</v>
       </c>
@@ -31002,15 +31000,15 @@
         <v>656670649</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
         <v>112</v>
       </c>
@@ -31018,10 +31016,10 @@
         <v>303301538</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43"/>
@@ -31040,18 +31038,18 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="33.69921875" customWidth="1"/>
-    <col min="4" max="4" width="27.69921875" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -31060,7 +31058,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -31072,12 +31070,12 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -31086,12 +31084,12 @@
       <c r="G3" s="30"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -31100,12 +31098,12 @@
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -31114,7 +31112,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -31126,7 +31124,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -31136,7 +31134,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
         <v>6</v>
       </c>
@@ -31151,12 +31149,12 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C9" s="92"/>
       <c r="D9" s="39"/>
@@ -31164,7 +31162,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -31174,7 +31172,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -31194,7 +31192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -31204,50 +31202,50 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="94" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B13" s="88">
         <v>656670649</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="94" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B14" s="88">
         <v>511448813</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B15" s="22">
         <v>584241623</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43"/>

--- a/vufind/module/DHGE/tests/fixtures/spreadsheet/rda.xlsx
+++ b/vufind/module/DHGE/tests/fixtures/spreadsheet/rda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ta37sev\Documents\workspace\thulbsuche2_dev\vufind\module\DHGE\tests\fixtures\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370A6D06-31C6-4AEA-9FA6-E35D738717AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6656BCBF-7C5E-4190-ABDF-CA50308271A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="14145" tabRatio="500" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="14145" tabRatio="500" firstSheet="26" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Titel" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="Mehr zum Titel" sheetId="23" r:id="rId18"/>
     <sheet name="Verwandte Ressourcen" sheetId="24" r:id="rId19"/>
     <sheet name="Vorheriger Späterer Titel" sheetId="25" r:id="rId20"/>
-    <sheet name="Anmerkungen" sheetId="26" r:id="rId21"/>
+    <sheet name="Anmerkungen zur Veröffentlich" sheetId="26" r:id="rId21"/>
     <sheet name="Werktitel" sheetId="27" r:id="rId22"/>
     <sheet name="Umfang" sheetId="28" r:id="rId23"/>
     <sheet name="Sekundäre Ausgabe" sheetId="29" r:id="rId24"/>
@@ -45,9 +45,10 @@
     <sheet name="ZDB-Nummer" sheetId="34" r:id="rId30"/>
     <sheet name="Basisklassifikation" sheetId="35" r:id="rId31"/>
     <sheet name="RVK_Notation" sheetId="47" r:id="rId32"/>
-    <sheet name="Inhaltsangaben" sheetId="38" r:id="rId33"/>
-    <sheet name="Rechteinformation" sheetId="41" r:id="rId34"/>
-    <sheet name="Access Status" sheetId="43" r:id="rId35"/>
+    <sheet name="DDC-Sachgruppe der DNB" sheetId="50" r:id="rId33"/>
+    <sheet name="Inhaltsangaben" sheetId="38" r:id="rId34"/>
+    <sheet name="Rechteinformation" sheetId="41" r:id="rId35"/>
+    <sheet name="Access Status" sheetId="43" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -634,7 +635,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="607">
   <si>
     <t>Titel</t>
   </si>
@@ -1108,6 +1109,9 @@
     <t>041 $a</t>
   </si>
   <si>
+    <t>Publikationsangaben</t>
+  </si>
+  <si>
     <t>Anzeige der Publikationsangaben</t>
   </si>
   <si>
@@ -1484,6 +1488,10 @@
     <t>Tickets #182, #420</t>
   </si>
   <si>
+    <t xml:space="preserve">Inhaltsverzeichnis
+</t>
+  </si>
+  <si>
     <t>Verwandte Ressourcen</t>
   </si>
   <si>
@@ -1589,12 +1597,6 @@
   </si>
   <si>
     <t xml:space="preserve">Varying Form of Title, General notes, With note, </t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Ticket #136</t>
   </si>
   <si>
     <t>246 1</t>
@@ -3022,9 +3024,6 @@
     <t>RVK notation</t>
   </si>
   <si>
-    <t>RVK-Notation</t>
-  </si>
-  <si>
     <t>Ticket #500</t>
   </si>
   <si>
@@ -3093,18 +3092,12 @@
     <t>Die Möglichkeit der Haftungsbeschränkung volljährig Gewordener gem. § 1629a i. V. mit §§ 1990, 1991 BGB : Regelungsbereich des MHbeG und Rechtsfolgen der Haftungsbeschränkung auf das Volljährigkeitsvermögen / Simone Konz</t>
   </si>
   <si>
-    <t>656670649</t>
-  </si>
-  <si>
     <t>100 $a und $4</t>
   </si>
   <si>
     <t>Berlin : Duncker &amp; Humblot GmbH, 2006</t>
   </si>
   <si>
-    <t>Schriften zum Bürgerlichen Recht 340</t>
-  </si>
-  <si>
     <t>490 $a $v</t>
   </si>
   <si>
@@ -3115,12 +3108,6 @@
   </si>
   <si>
     <t xml:space="preserve">020 $9 </t>
-  </si>
-  <si>
-    <t>Online-Ausg., 2011, Electronic reproduction; Available via World Wide Web</t>
-  </si>
-  <si>
-    <t>533 $a $d $n</t>
   </si>
   <si>
     <t>Darstellungsregel
@@ -3164,13 +3151,6 @@
     <t>Edition statement</t>
   </si>
   <si>
-    <t>Achtsamkeit
-Körper
-Emotionen
-Geist
-Esoterik</t>
-  </si>
-  <si>
     <t xml:space="preserve">650 $a (mehrfach)
 </t>
   </si>
@@ -3181,10 +3161,6 @@
     <t>Druckausg.: Professionelles Verkaufen</t>
   </si>
   <si>
-    <t>Inhaltstext
-Ausführliche Beschreibung</t>
-  </si>
-  <si>
     <t>856 42 $u $3
 856 42 $u $3</t>
   </si>
@@ -3202,9 +3178,6 @@
   </si>
   <si>
     <t>Strategien deutscher Unternehmen in Indien (2006), Seite 3-23</t>
-  </si>
-  <si>
-    <t>0340-1650</t>
   </si>
   <si>
     <t>Fortgesetzt als Online-Ausgabe
@@ -3234,9 +3207,6 @@
 785 $i, $t</t>
   </si>
   <si>
-    <t>Vorg.: Harvard-Manager</t>
-  </si>
-  <si>
     <t>780 $i, $t</t>
   </si>
   <si>
@@ -3253,12 +3223,6 @@
   </si>
   <si>
     <t>1.1921 - 24.1944,7; N.F. 1.1949/50 - 12.1960; 1961-2019, 6 ; 2020, 4</t>
-  </si>
-  <si>
-    <t>Ausz.: Studies on statistics
-Erscheint auch als CD-ROM-Ausgabe 2001-2009: Wirtschaft und Statistik
-Erscheint auch als Online-Ausgabe, 1921-: Wirtschaft und Statistik
-1934,Sept. - 1939,Juli Sonderabdr. u. 1939,Aug.-Dez. darin: Deutscher Witterungsbericht</t>
   </si>
   <si>
     <t>776 $i, $t
@@ -3267,15 +3231,6 @@
 776 $i, $t</t>
   </si>
   <si>
-    <t>In and beyond European works councils: Limits and possibilities for trade union influence</t>
-  </si>
-  <si>
-    <t>NLEJ219658226</t>
-  </si>
-  <si>
-    <t>Reviews the competing perspectives given to the developments of European works councils (EWCs). In doing this an evaluation is given regarding the current state of the European labour movement and its ability to condition and influence contemporary practices of multinational corporations in an era of disturbances to existing national industrial relations regimes. In particular, the article addresses the concerns raised by commentators who adopt the position that EWCs may undermine traditional forms of joint regulation and, consequently, reinforce the development of narrow/parochial enterprise-based unionism. The paper questions this position by offering an alternative interpretation regarding the evolution and influence that EWCs can have on the management of MNCs. It highlights how management information systems, organisational structures and power relations are vulnerable to employee collaborative activities across national boundaries.</t>
-  </si>
-  <si>
     <t>Mit dem Minderjährigenhaftungsbeschränkungsgesetz (MHbeG) wurde gem. § 1629a i. V. mit §§ 1990, 1991 BGB für volljährig Gewordene die Möglichkeit geschaffen, ihre Haftung auf das Volljährigkeitsvermögen zu beschränken und in § 723 I 3 Nr. 2 BGB ein Sonderkündigungsrecht für volljährig gewordene Gesellschafter begründet. Das MHbeG wirft zahlreiche Probleme aus den verschiedensten Bereichen des materiellen Zivil- und Prozeßrechts wie dem Minderjährigen- und Familienrecht, dem Schuldrecht, dem Handels- und Gesellschaftsrecht und nicht zuletzt dem Recht der Erbenhaftung und dem Vollstreckungsrecht auf, die z. T. noch kaum oder gar nicht behandelt wurden. Auf der Höhe der aktuellen Diskussion in Rechtsprechung und Schrifttum entwickelt Simone Konz unter Einbeziehung der wichtigsten seit Inkrafttreten des BGB vertretenen Positionen eigenständige praxisgerechte Lösungen. Die Autorin setzt sich umfassend mit dem Regelungsbereich des MHbeG und unter Darstellung der erbrechtlichen Rechtslage den materiellen und prozessualen Rechtsfolgen der Haftungsbeschränkung, insbesondere dem Rechtsverhältnis zwischen volljährig Gewordenen und Altgläubigern, aber auch etwaigen Auswirkungen der Haftungsbeschränkung auf die Zugriffsmöglichkeiten der Neugläubiger auseinander. Hierbei zeigt sie auf, daß die Interessenlage im Fall der Haftungsbeschränkung des volljährig Gewordenen mit der im Erbrecht in vielen Punkten nicht vergleichbar ist. Die Tatsache, daß der volljährig Gewordene im Gegensatz zum Erben kein fremdes Vermögen übernimmt, hat nicht nur auf die Rechtsstellung des volljährig Gewordenen selbst, sondern auch auf die Schutzwürdig- und -bedürftigkeit der Alt- und Neugläubiger Auswirkungen. Aus dem Erbrecht z. T. bekannte Probleme erscheinen hier in anderem Licht und werden eigenständigen, vielfach neuen Lösungen zugeführt. Abgerundet wird die Darstellung durch eine Erörterung des Spannungsverhältnisses des § 1629a BGB zum handelsrechtlichen Verkehrsschutz sowie etwaigen Auswirkungen des MHbeG auf den Minderjährigenschutz und dessen Einfügung in das Haftungssystem. Ausgezeichnet mit dem Förderpreis 2006 für den wissenschaftlichen Nachwuchs des "Freundeskreises der Trierer Universität e. V."</t>
   </si>
   <si>
@@ -3391,14 +3346,6 @@
   </si>
   <si>
     <t>022 $a (mehrfach)</t>
-  </si>
-  <si>
-    <t>022 $a = nicht belegt 
-022 $a  der "Mutter"</t>
-  </si>
-  <si>
-    <t>022 $a = nicht belegt 
-erste 022 $a  der "Mutter"</t>
   </si>
   <si>
     <t>936 rv $a</t>
@@ -3539,19 +3486,9 @@
     <t>Nachgewiesen 10.1998 -</t>
   </si>
   <si>
-    <t>Inhaltsverzeichnis
-Inhaltstext</t>
-  </si>
-  <si>
-    <t>Bonn</t>
-  </si>
-  <si>
     <t>"Die vorliegende Arbeit wurde unter dem Titel "Vom Verstehen von "herausfordernden Verhaltensweisen" zum Verständnis für "herausfordernde Situationen": Die Gestaltung von Arbeitssituationen von Menschen mit schweren Beeinträchtigungen - Eine qualitativ-videoanalytische Studie" von der Philosophischen Fakultät der Universität Zürich im Frühjahrsemster 2016 ... als Dissertation angenommen" - Rückseite der Titelseite</t>
   </si>
   <si>
-    <t>Band 1: Einblicke in die Denkwelten und Tätigkeiten von Engagierten / Christel Kumbruck, Maik Dulle, Marvin Vogt</t>
-  </si>
-  <si>
     <t>Aufgaben und Lösungen</t>
   </si>
   <si>
@@ -3564,31 +3501,48 @@
     <t>506 $a $u</t>
   </si>
   <si>
-    <t>10.1515/9783110726305</t>
-  </si>
-  <si>
-    <t>10.1688/978386618111953</t>
-  </si>
-  <si>
     <t>1038388-8</t>
   </si>
   <si>
-    <t>Globisch, Sabine [Editor]; Bandorf, Ralf [Other]</t>
-  </si>
-  <si>
-    <t>Schaetzing, Edgar E. [Author]; Boss, Stephanie [Author]; Fritz, Jana [Other]</t>
-  </si>
-  <si>
-    <t>071021868</t>
-  </si>
-  <si>
-    <t>084450568</t>
-  </si>
-  <si>
-    <t>090014367</t>
+    <t>DDC-Sachgruppe(n) der DNB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dewey Decimal Classification Number </t>
+  </si>
+  <si>
+    <t>DDC Subject Categories</t>
+  </si>
+  <si>
+    <t>Anforderung in JIRA</t>
+  </si>
+  <si>
+    <t>https://jira.uni-jena.de/browse/THU014SUCH-20</t>
+  </si>
+  <si>
+    <t>082 04</t>
+  </si>
+  <si>
+    <t>082 Indikator 1 = 0, Indikator 2 = 4
+mehrere 082 04 $a werden untereinander abgebildet
+Auf jede Notation einen Suchlink legen: Indexsuche in "topic_browse" mit Inhalt aus 082 $a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">082 04 $a </t>
+  </si>
+  <si>
+    <t>082 04 $a</t>
+  </si>
+  <si>
+    <t>004</t>
   </si>
   <si>
     <t>Open Access</t>
+  </si>
+  <si>
+    <t>50.94 Mikrosystemtechnik, Nanotechnologie</t>
+  </si>
+  <si>
+    <t>86.22 Familienrecht</t>
   </si>
   <si>
     <t>54.32 Rechnerkommunikation
@@ -3596,49 +3550,79 @@
 53.73 Nachrichtenübertragung</t>
   </si>
   <si>
-    <t>86.22 Familienrecht</t>
-  </si>
-  <si>
-    <t>50.94 Mikrosystemtechnik, Nanotechnologie</t>
+    <t>158067674X</t>
   </si>
   <si>
     <t>OKKSA e.V. : Offener Katalog Kommunaler Softwareanforderungen [Herausgebendes Organ]</t>
   </si>
   <si>
+    <t>OKKSA e.V. : Offener Katalog Kommunaler Softwareanforderungen [Issuing body]</t>
+  </si>
+  <si>
     <t>UVK Verlag [Verlag]</t>
   </si>
   <si>
+    <t>UVK Verlag [Publisher]</t>
+  </si>
+  <si>
     <t>Dissertation, Universität zu Köln, 2021</t>
   </si>
   <si>
-    <t>978-3-428-11969-1</t>
+    <t>Anmerkungen zur Veröffentlichung</t>
+  </si>
+  <si>
+    <t>Release notes</t>
+  </si>
+  <si>
+    <t>Ticket #136 #521</t>
+  </si>
+  <si>
+    <t>071021868</t>
+  </si>
+  <si>
+    <t>Vorg: Harvard-Manager</t>
+  </si>
+  <si>
+    <t>Ersch. unregelmäßig</t>
+  </si>
+  <si>
+    <t>Band 1: Grundlagen - Regeln - Betriebsmittel / Heinz-Dieter Fröse</t>
+  </si>
+  <si>
+    <t>Globisch, Sabine [Editor]; Bandorf, Ralf [Other]</t>
+  </si>
+  <si>
+    <t>1650817541</t>
+  </si>
+  <si>
+    <t>Konz, Simone [Author]</t>
+  </si>
+  <si>
+    <t>Schaetzing, Edgar E. [Author]; Boss, Stephanie [Author]; Fritz, Jana [Other]</t>
   </si>
   <si>
     <t>1 online resource (xx, 399 p.)</t>
   </si>
   <si>
-    <t>OKKSA e.V. : Offener Katalog Kommunaler Softwareanforderungen [Issuing body]</t>
-  </si>
-  <si>
-    <t>UVK Verlag [Publisher]</t>
-  </si>
-  <si>
-    <t>TUDpress Verlag der Wissenschaften Dresden GmbH [Publisher]</t>
-  </si>
-  <si>
-    <t>Ersch. unregelmäßig</t>
-  </si>
-  <si>
-    <t>Konz, Simone [VerfasserIn]</t>
-  </si>
-  <si>
-    <t>Konz, Simone [Author]</t>
-  </si>
-  <si>
-    <t>The international library of Austrian economics 1</t>
-  </si>
-  <si>
-    <t>Vom Verstehen von "herausfordernden Verhaltensweisen" zum Verständnis für "herausfordernde Situationen"; Die Gestaltung von Arbeitssituationen von Menschen mit schweren Beeinträchtigungen</t>
+    <t>Erscheint auch als Ausz: Studies on statistics
+Erscheint auch als CD-ROM-Ausgabe 2001-2009: Wirtschaft und Statistik
+Erscheint auch als Online-Ausgabe, 1921-: Wirtschaft und Statistik
+Erscheint auch als 1934,Sept. - 1939,Juli Sonderabdr. u. 1939,Aug.-Dez. darin: Deutscher Witterungsbericht</t>
+  </si>
+  <si>
+    <t>Regensburger Verbundklassifikation</t>
+  </si>
+  <si>
+    <t>Schriften zum Bürgerlichen Recht</t>
+  </si>
+  <si>
+    <t>084450568</t>
+  </si>
+  <si>
+    <t>NLEJ219577854</t>
+  </si>
+  <si>
+    <t>Training strategies for tomorrow</t>
   </si>
   <si>
     <t>Microtechnology; Mikrosystemtechnik</t>
@@ -3646,7 +3630,45 @@
   <si>
     <t>Deutschland &gt; Erbrecht &gt; Minderjähriger &gt; Haftungsbeschränkung
 Deutschland &gt; Vermögenssorge &gt; Minderjähriger &gt; Haftungsbeschränkung
-Debts, External; Deutschland</t>
+Debts, External; Deutschland; Haftungsbeschränkung; Minderjähriger; Vermögenssorge</t>
+  </si>
+  <si>
+    <t>Achtsamkeit; Emotionen; Esoterik; Geist; Körper</t>
+  </si>
+  <si>
+    <t>Vom Verstehen von "herausfordernden Verhaltensweisen" zum Verständnis für "herausfordernde Situationen"; Die Gestaltung von Arbeitssituationen von Menschen mit schweren Beeinträchtigungen</t>
+  </si>
+  <si>
+    <t>urn:nbn:de:101:1-2023012414554688827902</t>
+  </si>
+  <si>
+    <t>urn:nbn:de:bvb:384-opus4-938992</t>
+  </si>
+  <si>
+    <t>Other Standard Identifier</t>
+  </si>
+  <si>
+    <t>978-3-428-11969-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhaltstext
+Ausführliche Beschreibung
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhaltsverzeichnis
+Inhaltstext
+</t>
+  </si>
+  <si>
+    <t>Konz, Simone [VerfasserIn]</t>
+  </si>
+  <si>
+    <t>The international library of Austrian economics 1</t>
+  </si>
+  <si>
+    <t>340
+360</t>
   </si>
 </sst>
 </file>
@@ -3983,7 +4005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4210,6 +4232,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4235,6 +4260,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4253,6 +4281,9 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4268,6 +4299,7 @@
     <xf numFmtId="49" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4280,6 +4312,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4292,6 +4327,27 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4418,8 +4474,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1653990</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>122055</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>45855</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11249,7 +11305,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>303840</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11303,7 +11359,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1437480</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11360,7 +11416,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11414,7 +11470,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11468,7 +11524,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11522,7 +11578,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11576,7 +11632,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11630,7 +11686,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11684,7 +11740,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11738,7 +11794,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11792,7 +11848,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11846,7 +11902,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11900,7 +11956,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12669,7 +12725,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1653990</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>131499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13374,7 +13430,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4228920</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16919,7 +16975,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1657800</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21316,7 +21372,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>303840</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21370,7 +21426,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1256760</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21427,7 +21483,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21476,7 +21532,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21530,7 +21586,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21584,7 +21640,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21638,7 +21694,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21692,7 +21748,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21746,7 +21802,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21800,7 +21856,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21854,7 +21910,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21908,7 +21964,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21962,7 +22018,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22016,7 +22072,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22328,14 +22384,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="58.25" customWidth="1"/>
-    <col min="4" max="4" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22526,7 +22581,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>29</v>
       </c>
@@ -22534,11 +22589,9 @@
         <v>666109559</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>444</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="D18" s="19"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
@@ -22547,30 +22600,26 @@
         <v>29</v>
       </c>
       <c r="B19" s="22">
-        <v>656670649</v>
+        <v>1650817541</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>459</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>510</v>
+        <v>592</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>509</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="D20" s="19"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
@@ -22589,8 +22638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22603,7 +22652,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -22615,7 +22664,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -22623,7 +22672,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -22631,7 +22680,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -22639,7 +22688,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -22651,7 +22700,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
@@ -22677,202 +22726,202 @@
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="131" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="119"/>
+        <v>125</v>
+      </c>
+      <c r="C10" s="131"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="119"/>
+      <c r="C11" s="131"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="119"/>
+      <c r="C12" s="131"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="119"/>
+        <v>128</v>
+      </c>
+      <c r="C13" s="131"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="119"/>
+      <c r="C14" s="131"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="119"/>
+        <v>125</v>
+      </c>
+      <c r="C15" s="131"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="119"/>
+        <v>128</v>
+      </c>
+      <c r="C16" s="131"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="119"/>
+      <c r="C17" s="131"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="119"/>
+        <v>125</v>
+      </c>
+      <c r="C18" s="131"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="119"/>
+        <v>128</v>
+      </c>
+      <c r="C19" s="131"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="119"/>
+      <c r="C20" s="131"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="119"/>
+        <v>134</v>
+      </c>
+      <c r="C21" s="131"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="119"/>
+        <v>136</v>
+      </c>
+      <c r="C22" s="131"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>389</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="119"/>
+        <v>128</v>
+      </c>
+      <c r="C23" s="131"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="119"/>
+      <c r="C24" s="131"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="119"/>
+        <v>134</v>
+      </c>
+      <c r="C25" s="131"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C26" s="119"/>
+      <c r="C26" s="131"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="119"/>
+      <c r="C27" s="131"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="119"/>
+      <c r="C28" s="131"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="119"/>
+      <c r="C29" s="131"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="119"/>
+      <c r="C30" s="131"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="119"/>
+      <c r="C31" s="131"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="119"/>
+      <c r="C32" s="131"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="119"/>
+      <c r="C33" s="131"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="119"/>
+      <c r="C34" s="131"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="119"/>
+      <c r="C35" s="131"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="119"/>
+      <c r="C36" s="131"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="119"/>
+      <c r="C37" s="131"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -22923,65 +22972,57 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B42" s="22">
-        <v>656670649</v>
+        <v>1650817541</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>463</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="D42" s="19"/>
       <c r="E42" s="20"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="98" t="s">
-        <v>491</v>
-      </c>
-      <c r="C43" s="99" t="s">
-        <v>492</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>492</v>
-      </c>
+      <c r="A43" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="100" t="s">
+        <v>484</v>
+      </c>
+      <c r="C43" s="101" t="s">
+        <v>485</v>
+      </c>
+      <c r="D43" s="19"/>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="94" t="s">
-        <v>464</v>
-      </c>
-      <c r="B44" s="88">
+      <c r="A44" s="95" t="s">
+        <v>461</v>
+      </c>
+      <c r="B44" s="89">
         <v>318503832</v>
       </c>
-      <c r="C44" s="99" t="s">
-        <v>515</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>515</v>
-      </c>
+      <c r="C44" s="101" t="s">
+        <v>502</v>
+      </c>
+      <c r="D44" s="96"/>
       <c r="E44" s="20"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="94" t="s">
-        <v>536</v>
-      </c>
-      <c r="B45" s="98" t="s">
-        <v>579</v>
-      </c>
-      <c r="C45" s="99" t="s">
-        <v>596</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>596</v>
-      </c>
+      <c r="A45" s="95" t="s">
+        <v>523</v>
+      </c>
+      <c r="B45" s="100" t="s">
+        <v>591</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>605</v>
+      </c>
+      <c r="D45" s="96"/>
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
     </row>
@@ -22991,6 +23032,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B45" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -23000,8 +23044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23014,7 +23058,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -23026,7 +23070,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -23034,7 +23078,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -23042,7 +23086,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -23050,7 +23094,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -23062,7 +23106,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
@@ -23088,174 +23132,174 @@
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="131" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="119"/>
+        <v>146</v>
+      </c>
+      <c r="C10" s="131"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="119"/>
+        <v>148</v>
+      </c>
+      <c r="C11" s="131"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="119"/>
+      <c r="C12" s="131"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C13" s="119"/>
+      <c r="C13" s="131"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="119"/>
+        <v>151</v>
+      </c>
+      <c r="C14" s="131"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="119"/>
+        <v>152</v>
+      </c>
+      <c r="C15" s="131"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="119"/>
+      <c r="C16" s="131"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="119"/>
+      <c r="C17" s="131"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="119"/>
+      <c r="C18" s="131"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="119"/>
+      <c r="C19" s="131"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="119"/>
+      <c r="C20" s="131"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="119"/>
+      <c r="C21" s="131"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="119"/>
+      <c r="C22" s="131"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="119"/>
+      <c r="C23" s="131"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="119"/>
+      <c r="C24" s="131"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="119"/>
+      <c r="C25" s="131"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="119"/>
+      <c r="C26" s="131"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="119"/>
+      <c r="C27" s="131"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="119"/>
+      <c r="C28" s="131"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="119"/>
+      <c r="C29" s="131"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="119"/>
+      <c r="C30" s="131"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="119"/>
+      <c r="C31" s="131"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="119"/>
+      <c r="C32" s="131"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="119"/>
+      <c r="C33" s="131"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="119"/>
+      <c r="C34" s="131"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="119"/>
+      <c r="C35" s="131"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="119"/>
+      <c r="C36" s="131"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="119"/>
+      <c r="C37" s="131"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -23306,49 +23350,43 @@
     </row>
     <row r="42" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B42" s="22">
         <v>666109559</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>598</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>598</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="D42" s="19"/>
       <c r="E42" s="20"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="85.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="95" t="s">
-        <v>152</v>
+      <c r="A43" s="97" t="s">
+        <v>153</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>460</v>
+        <v>584</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>599</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>599</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="D43" s="19"/>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="94" t="s">
-        <v>483</v>
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="95" t="s">
+        <v>477</v>
       </c>
       <c r="B44" s="22">
         <v>1658944399</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>482</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D44" s="19"/>
       <c r="E44" s="20"/>
       <c r="F44" s="21"/>
     </row>
@@ -23371,7 +23409,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23384,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -23398,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -23412,7 +23450,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -23426,7 +23464,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -23440,7 +23478,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -23454,7 +23492,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -23490,13 +23528,13 @@
     </row>
     <row r="9" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D9" s="39"/>
       <c r="F9" s="3"/>
@@ -23545,49 +23583,43 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" s="22">
         <v>666109559</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>452</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>452</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
-        <v>162</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="95" t="s">
+        <v>163</v>
       </c>
       <c r="B14" s="22">
         <v>511448813</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>490</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="94" t="s">
-        <v>542</v>
+      <c r="A15" s="95" t="s">
+        <v>529</v>
       </c>
       <c r="B15" s="22">
         <v>129510750</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>541</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>541</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="42"/>
       <c r="F15" s="43"/>
     </row>
@@ -23602,10 +23634,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23615,7 +23647,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -23627,7 +23659,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -23635,7 +23667,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -23643,7 +23675,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -23652,7 +23684,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -23664,7 +23696,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
@@ -23690,20 +23722,20 @@
     </row>
     <row r="9" spans="1:6" ht="255" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -23748,36 +23780,18 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="88">
+      <c r="A14" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="89">
         <v>318503832</v>
       </c>
-      <c r="C14" s="99" t="s">
-        <v>516</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>516</v>
-      </c>
+      <c r="C14" s="101" t="s">
+        <v>503</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="98" t="s">
-        <v>580</v>
-      </c>
-      <c r="C15" s="99" t="s">
-        <v>566</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -23796,7 +23810,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23804,7 +23818,6 @@
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="53.5" customWidth="1"/>
-    <col min="4" max="4" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -23812,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -23825,7 +23838,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -23841,7 +23854,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -23862,7 +23875,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -23892,7 +23905,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="23"/>
@@ -23930,52 +23943,46 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="88">
+      <c r="A13" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="89">
         <v>318503832</v>
       </c>
-      <c r="C13" s="99" t="s">
-        <v>514</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>514</v>
-      </c>
+      <c r="C13" s="101" t="s">
+        <v>501</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="88">
+      <c r="A14" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="89">
         <v>1779836139</v>
       </c>
-      <c r="C14" s="99" t="s">
-        <v>587</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>587</v>
-      </c>
+      <c r="C14" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="D14" s="105"/>
       <c r="E14" s="42"/>
-      <c r="F14" s="103"/>
+      <c r="F14" s="106"/>
     </row>
     <row r="15" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="95" t="s">
-        <v>544</v>
-      </c>
-      <c r="B15" s="88">
+      <c r="A15" s="97" t="s">
+        <v>531</v>
+      </c>
+      <c r="B15" s="89">
         <v>1746361352</v>
       </c>
-      <c r="C15" s="99" t="s">
-        <v>543</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>543</v>
-      </c>
+      <c r="C15" s="101" t="s">
+        <v>530</v>
+      </c>
+      <c r="D15" s="105"/>
       <c r="E15" s="42"/>
-      <c r="F15" s="103"/>
+      <c r="F15" s="106"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -23993,7 +24000,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24006,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -24020,7 +24027,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -24034,7 +24041,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -24048,7 +24055,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -24062,7 +24069,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -24076,7 +24083,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -24112,7 +24119,7 @@
     </row>
     <row r="9" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="38"/>
@@ -24162,20 +24169,18 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="88">
+      <c r="A13" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="89">
         <v>522574572</v>
       </c>
-      <c r="C13" s="96" t="s">
-        <v>517</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>517</v>
-      </c>
+      <c r="C13" s="98" t="s">
+        <v>504</v>
+      </c>
+      <c r="D13" s="105"/>
       <c r="E13" s="42"/>
-      <c r="F13" s="110"/>
+      <c r="F13" s="114"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -24191,7 +24196,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24199,7 +24204,6 @@
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="31.75" customWidth="1"/>
     <col min="3" max="3" width="40.25" customWidth="1"/>
-    <col min="4" max="4" width="59.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -24207,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -24221,7 +24225,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -24235,7 +24239,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -24249,7 +24253,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -24263,7 +24267,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -24277,7 +24281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -24313,10 +24317,10 @@
     </row>
     <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="39"/>
@@ -24364,56 +24368,50 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
-        <v>503</v>
-      </c>
-      <c r="B13" s="88">
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="95" t="s">
+        <v>494</v>
+      </c>
+      <c r="B13" s="89">
         <v>131169416</v>
       </c>
-      <c r="C13" s="96" t="s">
-        <v>502</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>502</v>
-      </c>
+      <c r="C13" s="98" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
-        <v>503</v>
-      </c>
-      <c r="B14" s="88">
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="95" t="s">
+        <v>494</v>
+      </c>
+      <c r="B14" s="89">
         <v>129510750</v>
       </c>
-      <c r="C14" s="96" t="s">
-        <v>506</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>506</v>
-      </c>
+      <c r="C14" s="98" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:8" s="116" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="111" t="s">
-        <v>503</v>
-      </c>
-      <c r="B15" s="112">
+    <row r="15" spans="1:8" s="121" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="115" t="s">
+        <v>494</v>
+      </c>
+      <c r="B15" s="116">
         <v>507897900</v>
       </c>
-      <c r="C15" s="117" t="s">
-        <v>564</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
+      <c r="C15" s="122" t="s">
+        <v>549</v>
+      </c>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="102"/>
+      <c r="A19" s="104"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -24428,14 +24426,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="92.75" customWidth="1"/>
+    <col min="3" max="3" width="91.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -24443,7 +24440,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -24457,7 +24454,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -24471,7 +24468,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -24485,7 +24482,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -24499,7 +24496,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -24513,7 +24510,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -24549,10 +24546,10 @@
     </row>
     <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="39"/>
@@ -24600,53 +24597,47 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="88">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="89">
         <v>131169416</v>
       </c>
-      <c r="C13" s="100" t="s">
-        <v>504</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>504</v>
-      </c>
+      <c r="C13" s="102" t="s">
+        <v>495</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="88">
+      <c r="A14" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="89">
         <v>129510750</v>
       </c>
-      <c r="C14" s="101" t="s">
-        <v>505</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>505</v>
-      </c>
+      <c r="C14" s="103" t="s">
+        <v>496</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:8" s="116" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="112">
+    <row r="15" spans="1:8" s="121" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="116">
         <v>507897900</v>
       </c>
-      <c r="C15" s="113" t="s">
-        <v>593</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
+      <c r="C15" s="117" t="s">
+        <v>581</v>
+      </c>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -24662,7 +24653,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24675,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -24696,7 +24687,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -24704,7 +24695,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -24712,7 +24703,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -24725,7 +24716,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -24760,7 +24751,7 @@
       <c r="B9" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="133" t="s">
         <v>405</v>
       </c>
     </row>
@@ -24771,7 +24762,7 @@
       <c r="B10" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="134"/>
     </row>
     <row r="11" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -24780,7 +24771,7 @@
       <c r="B11" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C11" s="122"/>
+      <c r="C11" s="134"/>
     </row>
     <row r="12" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -24789,7 +24780,7 @@
       <c r="B12" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C12" s="123"/>
+      <c r="C12" s="135"/>
     </row>
     <row r="13" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -24798,7 +24789,7 @@
       <c r="B13" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C13" s="124"/>
+      <c r="C13" s="136"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
@@ -24840,45 +24831,39 @@
         <v>666109559</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>365</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D17" s="19"/>
       <c r="E17" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="97" t="s">
-        <v>487</v>
+      <c r="A18" s="99" t="s">
+        <v>480</v>
       </c>
       <c r="B18" s="22">
         <v>511448813</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>486</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="D18" s="19"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="118" t="s">
-        <v>487</v>
+      <c r="A19" s="123" t="s">
+        <v>480</v>
       </c>
       <c r="B19" s="22">
         <v>517357518</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>565</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
     </row>
@@ -24900,8 +24885,8 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24909,7 +24894,7 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="52.75" customWidth="1"/>
-    <col min="4" max="4" width="44.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="8.125" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
   </cols>
@@ -24919,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -24932,7 +24917,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -24940,7 +24925,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -24948,7 +24933,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -24956,7 +24941,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -24969,10 +24954,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -25001,64 +24986,64 @@
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="119" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="131" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="119"/>
+        <v>214</v>
+      </c>
+      <c r="C10" s="131"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="119"/>
+        <v>134</v>
+      </c>
+      <c r="C11" s="131"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="119"/>
+        <v>217</v>
+      </c>
+      <c r="C12" s="131"/>
     </row>
     <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="119"/>
+        <v>219</v>
+      </c>
+      <c r="C13" s="131"/>
     </row>
     <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>391</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="119"/>
+        <v>220</v>
+      </c>
+      <c r="C14" s="131"/>
     </row>
     <row r="15" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="119"/>
+      <c r="C15" s="131"/>
     </row>
     <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
@@ -25094,67 +25079,59 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B19" s="22">
         <v>666109559</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>453</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>538</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="D20" s="19"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
-        <v>484</v>
-      </c>
-      <c r="B21" s="88">
+      <c r="A21" s="97" t="s">
+        <v>478</v>
+      </c>
+      <c r="B21" s="89">
         <v>655772626</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>485</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="D21" s="19"/>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:8" s="32" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="95" t="s">
-        <v>508</v>
-      </c>
-      <c r="B22" s="88">
+      <c r="A22" s="97" t="s">
+        <v>498</v>
+      </c>
+      <c r="B22" s="89">
         <v>129510750</v>
       </c>
-      <c r="C22" s="99" t="s">
-        <v>507</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>507</v>
-      </c>
+      <c r="C22" s="101" t="s">
+        <v>588</v>
+      </c>
+      <c r="D22" s="105"/>
       <c r="E22" s="42"/>
-      <c r="F22" s="103"/>
+      <c r="F22" s="106"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="67"/>
@@ -25172,16 +25149,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4F69D3-1F0A-4AFC-93D9-D418F72804C6}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="130.5" customWidth="1"/>
-    <col min="4" max="4" width="92.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -25249,7 +25225,7 @@
         <v>435</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D9" s="78"/>
     </row>
@@ -25320,15 +25296,13 @@
         <v>666109559</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>445</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-    </row>
-    <row r="17" spans="1:6" ht="215.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+    </row>
+    <row r="17" spans="1:6" ht="231.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="83" t="s">
         <v>434</v>
       </c>
@@ -25336,31 +25310,13 @@
         <v>1650817541</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>512</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-    </row>
-    <row r="18" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
-        <v>434</v>
-      </c>
-      <c r="B18" s="84" t="s">
-        <v>510</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>511</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>499</v>
+      </c>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+    </row>
+    <row r="18" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{C8A4346A-CE32-463B-A5E3-A33CFC50ED23}"/>
@@ -25374,10 +25330,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25392,7 +25348,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -25404,7 +25360,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -25412,7 +25368,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -25420,7 +25376,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -25428,7 +25384,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -25440,7 +25396,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -25468,47 +25424,47 @@
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="125" t="s">
-        <v>225</v>
+        <v>212</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="125"/>
+        <v>134</v>
+      </c>
+      <c r="C10" s="137"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="125"/>
+        <v>212</v>
+      </c>
+      <c r="C11" s="137"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="125"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -25557,66 +25513,63 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
-        <v>497</v>
-      </c>
-      <c r="B17" s="88">
+    <row r="17" spans="1:6" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="97" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" s="89">
         <v>518960641</v>
       </c>
-      <c r="C17" s="99" t="s">
-        <v>496</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>496</v>
-      </c>
+      <c r="C17" s="101" t="s">
+        <v>488</v>
+      </c>
+      <c r="D17" s="19"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
-        <v>499</v>
-      </c>
-      <c r="B18" s="88">
+    <row r="18" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A18" s="97" t="s">
+        <v>491</v>
+      </c>
+      <c r="B18" s="89">
         <v>129228222</v>
       </c>
-      <c r="C18" s="99" t="s">
-        <v>498</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>498</v>
-      </c>
+      <c r="C18" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="D18" s="19"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="s">
-        <v>501</v>
-      </c>
-      <c r="B19" s="88">
+      <c r="A19" s="97" t="s">
+        <v>492</v>
+      </c>
+      <c r="B19" s="89">
         <v>131169416</v>
       </c>
-      <c r="C19" s="99" t="s">
-        <v>500</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>500</v>
-      </c>
+      <c r="C19" s="101" t="s">
+        <v>580</v>
+      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C9:C12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -25624,8 +25577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A13" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25638,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -25650,7 +25603,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -25658,7 +25611,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -25666,7 +25619,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>229</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -25674,7 +25627,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>232</v>
+        <v>577</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -25686,7 +25639,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>233</v>
+        <v>578</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -25783,7 +25736,7 @@
         <v>246</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="51"/>
@@ -25904,11 +25857,9 @@
         <v>666109559</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>454</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
     </row>
@@ -25917,34 +25868,30 @@
         <v>251</v>
       </c>
       <c r="B26" s="22">
-        <v>656670649</v>
+        <v>1650817541</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>474</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="D26" s="19"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="95" t="s">
-        <v>495</v>
+      <c r="A27" s="97" t="s">
+        <v>487</v>
       </c>
       <c r="B27" s="22">
         <v>470755261</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>494</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="D27" s="19"/>
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:6" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="102.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>251</v>
       </c>
@@ -25952,26 +25899,21 @@
         <v>872191281</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>567</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="D28" s="19"/>
       <c r="E28" s="20"/>
       <c r="F28" s="21"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25980,7 +25922,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26074,7 +26016,7 @@
       <c r="B9" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="131" t="s">
         <v>264</v>
       </c>
     </row>
@@ -26085,7 +26027,7 @@
       <c r="B10" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="119"/>
+      <c r="C10" s="131"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -26094,7 +26036,7 @@
       <c r="B11" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C11" s="119"/>
+      <c r="C11" s="131"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -26103,7 +26045,7 @@
       <c r="B12" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C12" s="119"/>
+      <c r="C12" s="131"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -26112,7 +26054,7 @@
       <c r="B13" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="119"/>
+      <c r="C13" s="131"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -26121,7 +26063,7 @@
       <c r="B14" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C14" s="119"/>
+      <c r="C14" s="131"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -26130,7 +26072,7 @@
       <c r="B15" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C15" s="119"/>
+      <c r="C15" s="131"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -26139,7 +26081,7 @@
       <c r="B16" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C16" s="119"/>
+      <c r="C16" s="131"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -26148,7 +26090,7 @@
       <c r="B17" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C17" s="119"/>
+      <c r="C17" s="131"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -26157,7 +26099,7 @@
       <c r="B18" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="119"/>
+      <c r="C18" s="131"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -26166,7 +26108,7 @@
       <c r="B19" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C19" s="119"/>
+      <c r="C19" s="131"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
@@ -26175,7 +26117,7 @@
       <c r="B20" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C20" s="119"/>
+      <c r="C20" s="131"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
@@ -26184,7 +26126,7 @@
       <c r="B21" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C21" s="119"/>
+      <c r="C21" s="131"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
@@ -26193,12 +26135,12 @@
       <c r="B22" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="119"/>
+      <c r="C22" s="131"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="119"/>
+      <c r="C23" s="131"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
@@ -26207,7 +26149,7 @@
       <c r="B24" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C24" s="119"/>
+      <c r="C24" s="131"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
@@ -26216,7 +26158,7 @@
       <c r="B25" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="119"/>
+      <c r="C25" s="131"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
@@ -26225,7 +26167,7 @@
       <c r="B26" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C26" s="119"/>
+      <c r="C26" s="131"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
@@ -26234,7 +26176,7 @@
       <c r="B27" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C27" s="119"/>
+      <c r="C27" s="131"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
@@ -26243,7 +26185,7 @@
       <c r="B28" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C28" s="119"/>
+      <c r="C28" s="131"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -26252,7 +26194,7 @@
       <c r="B29" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C29" s="119"/>
+      <c r="C29" s="131"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -26261,7 +26203,7 @@
       <c r="B30" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C30" s="119"/>
+      <c r="C30" s="131"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
@@ -26270,7 +26212,7 @@
       <c r="B31" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C31" s="119"/>
+      <c r="C31" s="131"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
@@ -26279,7 +26221,7 @@
       <c r="B32" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C32" s="119"/>
+      <c r="C32" s="131"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
@@ -26288,7 +26230,7 @@
       <c r="B33" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C33" s="119"/>
+      <c r="C33" s="131"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -26297,7 +26239,7 @@
       <c r="B34" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C34" s="119"/>
+      <c r="C34" s="131"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
@@ -26306,7 +26248,7 @@
       <c r="B35" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="119"/>
+      <c r="C35" s="131"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
@@ -26315,7 +26257,7 @@
       <c r="B36" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C36" s="119"/>
+      <c r="C36" s="131"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
@@ -26324,7 +26266,7 @@
       <c r="B37" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C37" s="119"/>
+      <c r="C37" s="131"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -26440,36 +26382,32 @@
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="98" t="s">
-        <v>578</v>
-      </c>
-      <c r="C49" s="99" t="s">
-        <v>545</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>545</v>
-      </c>
+      <c r="B49" s="100" t="s">
+        <v>579</v>
+      </c>
+      <c r="C49" s="101" t="s">
+        <v>532</v>
+      </c>
+      <c r="D49" s="105"/>
       <c r="E49" s="42"/>
-      <c r="F49" s="103"/>
+      <c r="F49" s="106"/>
     </row>
     <row r="50" spans="1:6" s="32" customFormat="1" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="B50" s="88">
+      <c r="B50" s="89">
         <v>872191281</v>
       </c>
-      <c r="C50" s="99" t="s">
+      <c r="C50" s="101" t="s">
         <v>597</v>
       </c>
-      <c r="D50" s="19" t="s">
-        <v>597</v>
-      </c>
+      <c r="D50" s="105"/>
       <c r="E50" s="42"/>
-      <c r="F50" s="103"/>
+      <c r="F50" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26480,13 +26418,13 @@
     <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-1A00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -26495,7 +26433,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26617,7 +26555,7 @@
         <v>321</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="39"/>
@@ -26672,44 +26610,38 @@
       <c r="B13" s="22">
         <v>666109559</v>
       </c>
-      <c r="C13" s="108" t="s">
-        <v>455</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>455</v>
-      </c>
+      <c r="C13" s="112" t="s">
+        <v>454</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
-        <v>473</v>
+      <c r="A14" s="95" t="s">
+        <v>468</v>
       </c>
       <c r="B14" s="22">
-        <v>656670649</v>
-      </c>
-      <c r="C14" s="109" t="s">
-        <v>472</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>472</v>
-      </c>
+        <v>1650817541</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>467</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="94" t="s">
-        <v>473</v>
+      <c r="A15" s="95" t="s">
+        <v>468</v>
       </c>
       <c r="B15" s="22">
         <v>1659478022</v>
       </c>
-      <c r="C15" s="109" t="s">
-        <v>589</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>589</v>
-      </c>
+      <c r="C15" s="113" t="s">
+        <v>587</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="42"/>
       <c r="F15" s="43"/>
     </row>
@@ -26724,16 +26656,16 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="47.875" customWidth="1"/>
-    <col min="3" max="3" width="60.875" customWidth="1"/>
+    <col min="3" max="3" width="63.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -26811,13 +26743,13 @@
     </row>
     <row r="9" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B9" s="56" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D9" s="55"/>
       <c r="F9" s="3"/>
@@ -26864,37 +26796,19 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>469</v>
-      </c>
-      <c r="B13" s="22">
-        <v>656670649</v>
-      </c>
-      <c r="C13" s="109" t="s">
-        <v>468</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>468</v>
-      </c>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" s="89">
+        <v>1650786514</v>
+      </c>
+      <c r="C13" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
-        <v>329</v>
-      </c>
-      <c r="B14" s="88">
-        <v>1650786514</v>
-      </c>
-      <c r="C14" s="101" t="s">
-        <v>525</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -26906,8 +26820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26940,7 +26854,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -27073,51 +26987,45 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B16" s="22">
         <v>666109559</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>456</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
-        <v>467</v>
+      <c r="A17" s="97" t="s">
+        <v>464</v>
       </c>
       <c r="B17" s="22">
-        <v>656670649</v>
+        <v>1650817541</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>588</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="D17" s="19"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
-        <v>466</v>
+      <c r="A18" s="97" t="s">
+        <v>463</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>546</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="D18" s="19"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
@@ -27131,6 +27039,9 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="B18" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
@@ -27141,7 +27052,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27171,7 +27082,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -27310,9 +27221,7 @@
       <c r="C16" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>375</v>
-      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
@@ -27333,10 +27242,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27369,7 +27278,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -27427,7 +27336,7 @@
         <v>370</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>372</v>
@@ -27491,68 +27400,32 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="95" t="s">
-        <v>551</v>
-      </c>
-      <c r="B15" s="88">
-        <v>511441622</v>
-      </c>
-      <c r="C15" s="96" t="s">
-        <v>493</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>493</v>
-      </c>
+      <c r="A15" s="97" t="s">
+        <v>536</v>
+      </c>
+      <c r="B15" s="89">
+        <v>129290025</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>535</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="95" t="s">
-        <v>549</v>
-      </c>
-      <c r="B16" s="88">
-        <v>129290025</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>548</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>548</v>
-      </c>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="97" t="s">
+        <v>534</v>
+      </c>
+      <c r="B16" s="89">
+        <v>165821035</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>506</v>
+      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
-        <v>550</v>
-      </c>
-      <c r="B17" s="88">
-        <v>581589599</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>519</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
-        <v>547</v>
-      </c>
-      <c r="B18" s="88">
-        <v>165821035</v>
-      </c>
-      <c r="C18" s="99" t="s">
-        <v>519</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -27571,7 +27444,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27726,34 +27599,30 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="97" t="s">
         <v>395</v>
       </c>
-      <c r="B15" s="88">
+      <c r="B15" s="89">
         <v>1745126244</v>
       </c>
-      <c r="C15" s="99" t="s">
-        <v>518</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>518</v>
-      </c>
+      <c r="C15" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="97" t="s">
         <v>395</v>
       </c>
-      <c r="B16" s="88" t="s">
-        <v>524</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>523</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>523</v>
-      </c>
+      <c r="B16" s="89" t="s">
+        <v>511</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>510</v>
+      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
@@ -27777,7 +27646,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27810,7 +27679,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>393</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -27932,39 +27801,35 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="B15" s="88">
-        <v>1761312138</v>
-      </c>
-      <c r="C15" s="99" t="s">
-        <v>573</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>573</v>
-      </c>
+      <c r="B15" s="89">
+        <v>1815815698</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>598</v>
+      </c>
+      <c r="D15" s="105"/>
       <c r="E15" s="42"/>
-      <c r="F15" s="103"/>
+      <c r="F15" s="106"/>
     </row>
     <row r="16" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="B16" s="88">
-        <v>592166880</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>574</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>574</v>
-      </c>
+      <c r="B16" s="89">
+        <v>1786534428</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>599</v>
+      </c>
+      <c r="D16" s="105"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="103"/>
+      <c r="F16" s="106"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="93"/>
+      <c r="A17" s="94"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -27986,7 +27851,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28117,35 +27982,31 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="22">
-        <v>1696886848</v>
+        <v>1772088129</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>568</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="B14" s="22">
         <v>1575565439</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>569</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
@@ -28165,7 +28026,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28336,34 +28197,30 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="95" t="s">
         <v>345</v>
       </c>
-      <c r="B13" s="88">
+      <c r="B13" s="89">
         <v>215869605</v>
       </c>
-      <c r="C13" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>520</v>
-      </c>
+      <c r="C13" s="98" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="95" t="s">
         <v>345</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B14" s="89">
         <v>170303977</v>
       </c>
-      <c r="C14" s="96" t="s">
-        <v>575</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>575</v>
-      </c>
+      <c r="C14" s="98" t="s">
+        <v>555</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
@@ -28380,8 +28237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28505,7 +28362,7 @@
       <c r="B9" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="138" t="s">
         <v>352</v>
       </c>
       <c r="D9" s="38"/>
@@ -28520,7 +28377,7 @@
       <c r="B10" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="C10" s="126"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="38"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -28568,51 +28425,45 @@
     </row>
     <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B14" s="22">
         <v>666109559</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>584</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>584</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="94" t="s">
-        <v>465</v>
+      <c r="A15" s="95" t="s">
+        <v>462</v>
       </c>
       <c r="B15" s="22">
-        <v>656670649</v>
+        <v>1650817541</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>583</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>583</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="42"/>
       <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="94" t="s">
-        <v>522</v>
+      <c r="A16" s="95" t="s">
+        <v>509</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>582</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>582</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="42"/>
       <c r="F16" s="43"/>
     </row>
@@ -28635,8 +28486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F105D1-B022-41E9-89E0-CE1CD0E916FE}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28649,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -28675,7 +28526,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -28689,7 +28540,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>438</v>
+        <v>589</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -28717,7 +28568,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -28737,10 +28588,10 @@
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="90" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="33" t="s">
@@ -28756,10 +28607,10 @@
         <v>350</v>
       </c>
       <c r="B9" s="37"/>
-      <c r="C9" s="127" t="s">
-        <v>442</v>
-      </c>
-      <c r="D9" s="90"/>
+      <c r="C9" s="139" t="s">
+        <v>441</v>
+      </c>
+      <c r="D9" s="91"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -28767,8 +28618,8 @@
     <row r="10" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="37"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="90"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="91"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
     </row>
@@ -28814,51 +28665,45 @@
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
-        <v>556</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>554</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>553</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
+        <v>541</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>539</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>538</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>552</v>
-      </c>
-      <c r="B15" s="88">
+        <v>537</v>
+      </c>
+      <c r="B15" s="89">
         <v>834430355</v>
       </c>
-      <c r="C15" s="96" t="s">
-        <v>555</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
+      <c r="C15" s="98" t="s">
+        <v>540</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
     </row>
     <row r="16" spans="1:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>556</v>
-      </c>
-      <c r="B16" s="88">
+        <v>541</v>
+      </c>
+      <c r="B16" s="89">
         <v>731906543</v>
       </c>
-      <c r="C16" s="96" t="s">
-        <v>557</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>557</v>
-      </c>
-      <c r="E16" s="106"/>
-      <c r="F16" s="107"/>
+      <c r="C16" s="98" t="s">
+        <v>542</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="110"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C17" s="59"/>
@@ -28881,11 +28726,233 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAAD725-BF89-41BE-9FA1-02E98485031C}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>557</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>558</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>560</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="126" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" s="127"/>
+      <c r="C9" s="139" t="s">
+        <v>562</v>
+      </c>
+      <c r="D9" s="125"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="128"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="125"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="61.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="95" t="s">
+        <v>563</v>
+      </c>
+      <c r="B14" s="89">
+        <v>578912406</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>565</v>
+      </c>
+      <c r="D14" s="130" t="s">
+        <v>565</v>
+      </c>
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
+    </row>
+    <row r="15" spans="1:8" s="32" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="95" t="s">
+        <v>564</v>
+      </c>
+      <c r="B15" s="89">
+        <v>732664918</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>606</v>
+      </c>
+      <c r="D15" s="98" t="s">
+        <v>606</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="C18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D22"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28985,7 +29052,7 @@
         <v>254</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="D9" s="10"/>
     </row>
@@ -29104,52 +29171,46 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="88">
+      <c r="B20" s="89">
         <v>492421129</v>
       </c>
-      <c r="C20" s="99" t="s">
-        <v>558</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>558</v>
-      </c>
+      <c r="C20" s="101" t="s">
+        <v>543</v>
+      </c>
+      <c r="D20" s="105"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="103"/>
+      <c r="F20" s="106"/>
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
-        <v>561</v>
-      </c>
-      <c r="B21" s="88">
+      <c r="A21" s="97" t="s">
+        <v>546</v>
+      </c>
+      <c r="B21" s="89">
         <v>844144010</v>
       </c>
-      <c r="C21" s="99" t="s">
-        <v>560</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>560</v>
-      </c>
+      <c r="C21" s="101" t="s">
+        <v>545</v>
+      </c>
+      <c r="D21" s="105"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="103"/>
+      <c r="F21" s="106"/>
     </row>
     <row r="22" spans="1:8" s="32" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="95" t="s">
-        <v>561</v>
-      </c>
-      <c r="B22" s="88">
+      <c r="A22" s="97" t="s">
+        <v>546</v>
+      </c>
+      <c r="B22" s="89">
         <v>881211028</v>
       </c>
-      <c r="C22" s="99" t="s">
-        <v>562</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>562</v>
-      </c>
+      <c r="C22" s="101" t="s">
+        <v>547</v>
+      </c>
+      <c r="D22" s="105"/>
       <c r="E22" s="42"/>
-      <c r="F22" s="103"/>
+      <c r="F22" s="106"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -29162,15 +29223,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29178,7 +29239,7 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="57.75" customWidth="1"/>
-    <col min="4" max="4" width="46.75" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="8.125" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
   </cols>
@@ -29273,7 +29334,7 @@
       <c r="B9" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="131" t="s">
         <v>388</v>
       </c>
     </row>
@@ -29284,7 +29345,7 @@
       <c r="B10" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C10" s="119"/>
+      <c r="C10" s="131"/>
     </row>
     <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -29293,27 +29354,27 @@
       <c r="B11" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C11" s="119"/>
+      <c r="C11" s="131"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="119"/>
+      <c r="C12" s="131"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="119"/>
+      <c r="C13" s="131"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="119"/>
+      <c r="C14" s="131"/>
     </row>
     <row r="15" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="119"/>
+      <c r="C15" s="131"/>
     </row>
     <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
@@ -29355,27 +29416,23 @@
         <v>1672161770</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>563</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="B20" s="22">
         <v>1777376807</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>570</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D20" s="19"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
@@ -29393,15 +29450,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A53A7B-BA0D-47EB-B9C5-D4EE8A52E7DE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29409,7 +29466,7 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="57.75" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="8.125" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
   </cols>
@@ -29504,7 +29561,7 @@
       <c r="B9" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="131" t="s">
         <v>404</v>
       </c>
     </row>
@@ -29515,7 +29572,7 @@
       <c r="B10" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C10" s="119"/>
+      <c r="C10" s="131"/>
     </row>
     <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -29551,17 +29608,15 @@
     </row>
     <row r="14" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="B14" s="22">
         <v>1777376807</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>581</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
@@ -29569,7 +29624,7 @@
       <c r="C15" s="68"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="93"/>
+      <c r="A16" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -29586,8 +29641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29685,7 +29740,7 @@
       <c r="B9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="131" t="s">
         <v>419</v>
       </c>
     </row>
@@ -29696,7 +29751,7 @@
       <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="119"/>
+      <c r="C10" s="131"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -29705,7 +29760,7 @@
       <c r="B11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="119"/>
+      <c r="C11" s="131"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -29714,7 +29769,7 @@
       <c r="B12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="119"/>
+      <c r="C12" s="131"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -29723,7 +29778,7 @@
       <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="119"/>
+      <c r="C13" s="131"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -29733,7 +29788,7 @@
       <c r="B14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="119"/>
+      <c r="C14" s="131"/>
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -29743,7 +29798,7 @@
       <c r="B15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="119"/>
+      <c r="C15" s="131"/>
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -29753,7 +29808,7 @@
       <c r="B16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="119"/>
+      <c r="C16" s="131"/>
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -29763,7 +29818,7 @@
       <c r="B17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="119"/>
+      <c r="C17" s="131"/>
       <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -29773,7 +29828,7 @@
       <c r="B18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="119"/>
+      <c r="C18" s="131"/>
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -29826,48 +29881,48 @@
     </row>
     <row r="23" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B23" s="22">
         <v>666109559</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>460</v>
+        <v>584</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="97" t="s">
         <v>420</v>
       </c>
       <c r="B25" s="22">
         <v>511448813</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
@@ -29892,7 +29947,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29987,7 +30042,7 @@
       <c r="B9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="132" t="s">
         <v>63</v>
       </c>
     </row>
@@ -29998,7 +30053,7 @@
       <c r="B10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="120"/>
+      <c r="C10" s="132"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -30007,7 +30062,7 @@
       <c r="B11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="120"/>
+      <c r="C11" s="132"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -30016,7 +30071,7 @@
       <c r="B12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="120"/>
+      <c r="C12" s="132"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -30025,7 +30080,7 @@
       <c r="B13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="120"/>
+      <c r="C13" s="132"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -30034,7 +30089,7 @@
       <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="120"/>
+      <c r="C14" s="132"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -30044,13 +30099,13 @@
       <c r="B15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="120"/>
+      <c r="C15" s="132"/>
       <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="120"/>
+      <c r="C16" s="132"/>
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -30060,7 +30115,7 @@
       <c r="B17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="120"/>
+      <c r="C17" s="132"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -30069,7 +30124,7 @@
       <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="120"/>
+      <c r="C18" s="132"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -30078,7 +30133,7 @@
       <c r="B19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="120"/>
+      <c r="C19" s="132"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
@@ -30087,7 +30142,7 @@
       <c r="B20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="120"/>
+      <c r="C20" s="132"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
@@ -30096,7 +30151,7 @@
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="120"/>
+      <c r="C21" s="132"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
@@ -30105,7 +30160,7 @@
       <c r="B22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="120"/>
+      <c r="C22" s="132"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -30117,7 +30172,7 @@
       <c r="B23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="120"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -30179,49 +30234,49 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="97" t="s">
-        <v>513</v>
-      </c>
-      <c r="B29" s="104">
+      <c r="A29" s="99" t="s">
+        <v>500</v>
+      </c>
+      <c r="B29" s="107">
         <v>866982868</v>
       </c>
-      <c r="C29" s="105" t="s">
-        <v>585</v>
+      <c r="C29" s="108" t="s">
+        <v>571</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="97" t="s">
-        <v>513</v>
-      </c>
-      <c r="B30" s="104">
+      <c r="A30" s="99" t="s">
+        <v>500</v>
+      </c>
+      <c r="B30" s="107">
         <v>1745126244</v>
       </c>
-      <c r="C30" s="105" t="s">
-        <v>586</v>
+      <c r="C30" s="108" t="s">
+        <v>573</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="97" t="s">
+    <row r="31" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="99" t="s">
+        <v>500</v>
+      </c>
+      <c r="B31" s="107" t="s">
+        <v>570</v>
+      </c>
+      <c r="C31" s="108" t="s">
         <v>513</v>
       </c>
-      <c r="B31" s="104">
-        <v>1016030746</v>
-      </c>
-      <c r="C31" s="105" t="s">
-        <v>526</v>
-      </c>
       <c r="D31" s="19" t="s">
-        <v>592</v>
+        <v>513</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="21"/>
@@ -30246,7 +30301,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30504,52 +30559,52 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="95" t="s">
-        <v>528</v>
-      </c>
-      <c r="B22" s="88">
-        <v>1016030746</v>
-      </c>
-      <c r="C22" s="99" t="s">
-        <v>527</v>
+      <c r="A22" s="97" t="s">
+        <v>515</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>570</v>
+      </c>
+      <c r="C22" s="101" t="s">
+        <v>514</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:8" s="32" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="88">
+      <c r="B23" s="89">
         <v>864701748</v>
       </c>
-      <c r="C23" s="99" t="s">
-        <v>529</v>
+      <c r="C23" s="101" t="s">
+        <v>516</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="E23" s="42"/>
-      <c r="F23" s="103"/>
+      <c r="F23" s="106"/>
     </row>
     <row r="24" spans="1:8" s="32" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="95" t="s">
-        <v>531</v>
-      </c>
-      <c r="B24" s="88">
+      <c r="A24" s="97" t="s">
+        <v>518</v>
+      </c>
+      <c r="B24" s="89">
         <v>312004893</v>
       </c>
-      <c r="C24" s="99" t="s">
-        <v>530</v>
+      <c r="C24" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="E24" s="42"/>
-      <c r="F24" s="103"/>
+      <c r="F24" s="106"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -30568,7 +30623,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30746,10 +30801,10 @@
         <v>666109559</v>
       </c>
       <c r="C13" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>448</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>449</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
@@ -30759,13 +30814,13 @@
         <v>106</v>
       </c>
       <c r="B14" s="22">
-        <v>656670649</v>
+        <v>1650817541</v>
       </c>
       <c r="C14" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>448</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>449</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
@@ -30778,16 +30833,16 @@
         <v>303301538</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="102"/>
+      <c r="C21" s="104"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -30802,14 +30857,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="43.5" customWidth="1"/>
-    <col min="4" max="4" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -30817,7 +30871,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -30831,7 +30885,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -30845,7 +30899,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -30859,7 +30913,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -30873,7 +30927,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -30887,7 +30941,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -30923,13 +30977,13 @@
     </row>
     <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D9" s="39"/>
       <c r="F9" s="3"/>
@@ -30976,51 +31030,45 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" s="22">
         <v>666109559</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>450</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>450</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
-        <v>112</v>
+      <c r="A14" s="95" t="s">
+        <v>113</v>
       </c>
       <c r="B14" s="22">
-        <v>656670649</v>
+        <v>1650817541</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>462</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>462</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="88">
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="89">
         <v>303301538</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>534</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>534</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="42"/>
       <c r="F15" s="43"/>
     </row>
@@ -31034,14 +31082,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7D85B3-B839-4058-83A9-E4452C6DDCA3}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -31049,7 +31096,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -31075,7 +31122,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -31089,7 +31136,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -31103,7 +31150,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -31135,10 +31182,10 @@
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="92" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="33" t="s">
@@ -31151,12 +31198,12 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>476</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>481</v>
-      </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="39"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -31203,50 +31250,44 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
-        <v>476</v>
-      </c>
-      <c r="B13" s="88">
-        <v>656670649</v>
-      </c>
-      <c r="C13" s="96" t="s">
-        <v>478</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>478</v>
-      </c>
+      <c r="A13" s="95" t="s">
+        <v>471</v>
+      </c>
+      <c r="B13" s="89">
+        <v>1650817541</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>473</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
-        <v>476</v>
-      </c>
-      <c r="B14" s="88">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="95" t="s">
+        <v>471</v>
+      </c>
+      <c r="B14" s="89">
         <v>511448813</v>
       </c>
-      <c r="C14" s="96" t="s">
-        <v>489</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>489</v>
-      </c>
+      <c r="C14" s="98" t="s">
+        <v>482</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="94" t="s">
-        <v>476</v>
+      <c r="A15" s="95" t="s">
+        <v>471</v>
       </c>
       <c r="B15" s="22">
         <v>584241623</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>535</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>535</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="42"/>
       <c r="F15" s="43"/>
     </row>
